--- a/NumsWars.xlsx
+++ b/NumsWars.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CD5120-A2CE-4B08-9BC4-6F973C4357BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9FA0CB-AC11-4EEC-838B-0BD915B83909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1-2" sheetId="3" r:id="rId1"/>
     <sheet name="Figure 1-3" sheetId="1" r:id="rId2"/>
-    <sheet name="Figure 1-4" sheetId="2" r:id="rId3"/>
-    <sheet name="Figure 1-5" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Figure 1-5" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1-6" sheetId="7" r:id="rId5"/>
+    <sheet name="Figure 1-7" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1-8" sheetId="6" r:id="rId7"/>
+    <sheet name="Figure 1-9" sheetId="8" r:id="rId8"/>
+    <sheet name="Figure 2-3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="169">
   <si>
     <t>CASUALTY TRENDS 17TH TO 19TH CENTURIES</t>
   </si>
@@ -54,48 +59,12 @@
     <t>Mexican War</t>
   </si>
   <si>
-    <t>19TH CENTURY CAUSES OF BATTLEFIELD CASUALTIES</t>
-  </si>
-  <si>
-    <t>Artillery</t>
-  </si>
-  <si>
-    <t>Infantry Small Arms</t>
-  </si>
-  <si>
-    <t>Saber and Bayonet</t>
-  </si>
-  <si>
-    <t>40-50</t>
-  </si>
-  <si>
     <t>Victor %</t>
   </si>
   <si>
     <t>Loser %</t>
   </si>
   <si>
-    <t>BEFORE 1850 %</t>
-  </si>
-  <si>
-    <t>AFTER 1860 %</t>
-  </si>
-  <si>
-    <t>8-10</t>
-  </si>
-  <si>
-    <t>30-40</t>
-  </si>
-  <si>
-    <t>85-90</t>
-  </si>
-  <si>
-    <t>15-20</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -232,9 +201,6 @@
   </si>
   <si>
     <t>Koeniggraetz</t>
-  </si>
-  <si>
-    <t>Sewdan</t>
   </si>
   <si>
     <t>Frontiers</t>
@@ -338,13 +304,315 @@
   </si>
   <si>
     <t>Union</t>
+  </si>
+  <si>
+    <t>Austrians</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>Germans</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>British</t>
+  </si>
+  <si>
+    <t>Americans</t>
+  </si>
+  <si>
+    <t>Selected Battle Statistics, 1805-1973</t>
+  </si>
+  <si>
+    <t>Second Bull Run</t>
+  </si>
+  <si>
+    <t>Corinth</t>
+  </si>
+  <si>
+    <t>Fredericsburg</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Loser</t>
+  </si>
+  <si>
+    <t>20,7U</t>
+  </si>
+  <si>
+    <t>26,5C</t>
+  </si>
+  <si>
+    <t>28,9C</t>
+  </si>
+  <si>
+    <t>17,7U</t>
+  </si>
+  <si>
+    <t>19C</t>
+  </si>
+  <si>
+    <t>11U</t>
+  </si>
+  <si>
+    <t>6,8C</t>
+  </si>
+  <si>
+    <t>29,7C</t>
+  </si>
+  <si>
+    <t>27,7U</t>
+  </si>
+  <si>
+    <t>21,1U</t>
+  </si>
+  <si>
+    <t>19,2C</t>
+  </si>
+  <si>
+    <t>11,8U</t>
+  </si>
+  <si>
+    <t>23U</t>
+  </si>
+  <si>
+    <t>37,4C</t>
+  </si>
+  <si>
+    <t>Advance Rates in some 19th and 20th Century Campaigns</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>Distance km</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Distance/Day km</t>
+  </si>
+  <si>
+    <t>Maregno, a, 1800</t>
+  </si>
+  <si>
+    <t>a, quick wins, complete victory in 30 days or less</t>
+  </si>
+  <si>
+    <t>Marne, 1914</t>
+  </si>
+  <si>
+    <t>Caporetto, 1917</t>
+  </si>
+  <si>
+    <t>Gaza III, 1917</t>
+  </si>
+  <si>
+    <t>Somme II, 1918</t>
+  </si>
+  <si>
+    <t>Megiddo, a, 1918</t>
+  </si>
+  <si>
+    <t>Selected Combat Casualty Statistics (Approximate Data)</t>
+  </si>
+  <si>
+    <t>US Forces</t>
+  </si>
+  <si>
+    <t>U-17,7</t>
+  </si>
+  <si>
+    <t>C-28,9</t>
+  </si>
+  <si>
+    <t>Civil War</t>
+  </si>
+  <si>
+    <t>U-9,8</t>
+  </si>
+  <si>
+    <t>C-12,5</t>
+  </si>
+  <si>
+    <t>Spanis-American War</t>
+  </si>
+  <si>
+    <t>Philippinne Insurrection</t>
+  </si>
+  <si>
+    <t>World War I (1/2 year)</t>
+  </si>
+  <si>
+    <t>Antietam (draw)</t>
+  </si>
+  <si>
+    <t>SampleCivil War Casualties, % casualties, entire battles</t>
+  </si>
+  <si>
+    <t>Representative Casualties, % Per Day</t>
+  </si>
+  <si>
+    <t>%Combat Theater, Troops/Year</t>
+  </si>
+  <si>
+    <t>Per division</t>
+  </si>
+  <si>
+    <t>World War II</t>
+  </si>
+  <si>
+    <t>Anglo-Greek</t>
+  </si>
+  <si>
+    <t>Causes of Tank Casualties</t>
+  </si>
+  <si>
+    <t>Guns, Tanks and AT</t>
+  </si>
+  <si>
+    <t>65-70</t>
+  </si>
+  <si>
+    <t>Israeli Assessment, %</t>
+  </si>
+  <si>
+    <t>Egyptian Assessment, %</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>Missiles and Rockets</t>
+  </si>
+  <si>
+    <t>Index of Relative Theoretical Lethality</t>
+  </si>
+  <si>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>Late 19th century breechloading rifle</t>
+  </si>
+  <si>
+    <t>Rate of Fire
+Strikes/hour</t>
+  </si>
+  <si>
+    <t>Relative
+Effectiveness</t>
+  </si>
+  <si>
+    <t>Targets
+/Strike</t>
+  </si>
+  <si>
+    <r>
+      <t>Range Effect
+1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>√Range/1000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>√1,5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Muzzle Velocity Effect
+0,007*Muzzle Velocity*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>√Cal/1000</t>
+    </r>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>TLI</t>
+  </si>
+  <si>
+    <t>Total TLI</t>
+  </si>
+  <si>
+    <t>Endurance</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Punishment</t>
+  </si>
+  <si>
+    <t>Mobile Fighting Machines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield Model 1903 rifle </t>
+  </si>
+  <si>
+    <r>
+      <t>1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>√2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,13 +621,35 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -374,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -383,11 +673,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,7 +1032,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,88 +1047,88 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -809,13 +1136,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>1100</v>
@@ -824,18 +1151,18 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>1200</v>
@@ -844,18 +1171,18 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>1230</v>
@@ -864,12 +1191,12 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>1300</v>
@@ -877,7 +1204,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>1400</v>
@@ -885,7 +1212,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
         <v>1500</v>
@@ -893,7 +1220,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>1600</v>
@@ -901,7 +1228,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2">
         <v>1700</v>
@@ -909,7 +1236,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2">
         <v>1800</v>
@@ -917,7 +1244,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2">
         <v>1900</v>
@@ -925,7 +1252,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2">
         <v>2000</v>
@@ -956,10 +1283,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1024,11 +1351,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97780930-6EE7-4640-B519-DBBAE4C25557}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45267E9-A6C4-4C30-ACE1-C48E7CDD6AAF}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,48 +1379,103 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1089,672 +1483,1039 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D2B5AF-2B6F-450D-B4BB-5BAFCD8B1E08}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="14">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="15">
+        <v>25.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="14">
+        <v>21.3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10186311-843E-4C55-9479-F410A926D5E2}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="6" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="8" width="9.140625" style="5"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="8" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <v>1805</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="6">
-        <v>75000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="6">
-        <v>89000</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.84</v>
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>1806</v>
+        <v>36</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1805</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="6">
-        <v>50000</v>
+        <v>78</v>
+      </c>
+      <c r="D3" s="5">
+        <v>75000</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="6">
-        <v>30000</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.6</v>
+        <v>79</v>
+      </c>
+      <c r="F3" s="5">
+        <v>89000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>1812</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1806</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="6">
-        <v>130000</v>
+        <v>80</v>
+      </c>
+      <c r="D4" s="5">
+        <v>50000</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="6">
-        <v>120000</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1.08</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.08</v>
+        <v>78</v>
+      </c>
+      <c r="F4" s="5">
+        <v>30000</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5">
-        <v>1813</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1812</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="6">
-        <v>100000</v>
+        <v>78</v>
+      </c>
+      <c r="D5" s="5">
+        <v>130000</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="6">
-        <v>150000</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.67</v>
+        <v>81</v>
+      </c>
+      <c r="F5" s="5">
+        <v>120000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.08</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6">
         <v>1813</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="6">
-        <v>300000</v>
+        <v>78</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100000</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="6">
-        <v>180000</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1.67</v>
+        <v>79</v>
+      </c>
+      <c r="F6" s="5">
+        <v>150000</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>1815</v>
+        <v>40</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1813</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="6">
-        <v>77000</v>
+        <v>82</v>
+      </c>
+      <c r="D7" s="5">
+        <v>300000</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="6">
-        <v>83000</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.93</v>
+        <v>78</v>
+      </c>
+      <c r="F7" s="5">
+        <v>180000</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6">
         <v>1815</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="6">
-        <v>129000</v>
+        <v>78</v>
+      </c>
+      <c r="D8" s="5">
+        <v>77000</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="6">
-        <v>72000</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1.79</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1.79</v>
+        <v>80</v>
+      </c>
+      <c r="F8" s="5">
+        <v>83000</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.93</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9">
-        <v>1847</v>
+        <v>42</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1815</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="6">
-        <v>16000</v>
+        <v>82</v>
+      </c>
+      <c r="D9" s="5">
+        <v>129000</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="6">
-        <v>16000</v>
-      </c>
-      <c r="G9" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.31</v>
+        <v>78</v>
+      </c>
+      <c r="F9" s="5">
+        <v>72000</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.79</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6">
         <v>1847</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8500</v>
+        <v>83</v>
+      </c>
+      <c r="D10" s="5">
+        <v>16000</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="6">
-        <v>12000</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.71</v>
+        <v>84</v>
+      </c>
+      <c r="F10" s="5">
+        <v>16000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11">
-        <v>1862</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1847</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="6">
-        <v>40335</v>
+        <v>84</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8500</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="6">
-        <v>62642</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1.55</v>
+        <v>83</v>
+      </c>
+      <c r="F11" s="5">
+        <v>12000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.71</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="B12" s="6">
         <v>1862</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="6">
-        <v>80000</v>
+        <v>85</v>
+      </c>
+      <c r="D12" s="5">
+        <v>40335</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="6">
-        <v>45000</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1.77</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.56000000000000005</v>
+        <v>86</v>
+      </c>
+      <c r="F12" s="5">
+        <v>62642</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6">
         <v>1862</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="6">
-        <v>106000</v>
+        <v>86</v>
+      </c>
+      <c r="D13" s="5">
+        <v>80000</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="6">
-        <v>77500</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1.46</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.68</v>
+        <v>85</v>
+      </c>
+      <c r="F13" s="5">
+        <v>45000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14">
-        <v>1863</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1862</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="6">
-        <v>161000</v>
+        <v>86</v>
+      </c>
+      <c r="D14" s="5">
+        <v>106000</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="6">
-        <v>57352</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1.76</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.56999999999999995</v>
+        <v>85</v>
+      </c>
+      <c r="F14" s="5">
+        <v>77500</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15">
+        <v>48</v>
+      </c>
+      <c r="B15" s="6">
         <v>1863</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="6">
-        <v>75000</v>
+        <v>86</v>
+      </c>
+      <c r="D15" s="5">
+        <v>161000</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="6">
-        <v>88289</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1.18</v>
+        <v>85</v>
+      </c>
+      <c r="F15" s="5">
+        <v>57352</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6">
         <v>1863</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="6">
-        <v>56359</v>
+        <v>85</v>
+      </c>
+      <c r="D16" s="5">
+        <v>75000</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="6">
-        <v>46165</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1.22</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1.22</v>
+        <v>86</v>
+      </c>
+      <c r="F16" s="5">
+        <v>88289</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17">
-        <v>1864</v>
+        <v>50</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1863</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="6">
-        <v>107907</v>
+        <v>86</v>
+      </c>
+      <c r="D17" s="5">
+        <v>56359</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="6">
-        <v>63797</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1.69</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.59</v>
+        <v>85</v>
+      </c>
+      <c r="F17" s="5">
+        <v>46165</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.22</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18">
-        <v>1866</v>
+        <v>51</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1864</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="5">
+        <v>107907</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="5">
+        <v>63797</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19">
-        <v>1870</v>
+        <v>52</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1866</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="5">
+        <v>220000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="5">
+        <v>215000</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.02</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20">
-        <v>1914</v>
+        <v>88</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1870</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="5">
+        <v>190000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="5">
+        <v>110000</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.73</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21">
+        <v>53</v>
+      </c>
+      <c r="B21" s="6">
         <v>1914</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1390000</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6">
         <v>1914</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="5">
+        <v>187000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="5">
+        <v>160000</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1.17</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23">
+        <v>55</v>
+      </c>
+      <c r="B23" s="6">
         <v>1914</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="5">
+        <v>900000</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1.33</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24">
+        <v>56</v>
+      </c>
+      <c r="B24" s="6">
         <v>1914</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="5">
+        <v>288600</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="5">
+        <v>273000</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1.06</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25">
+        <v>57</v>
+      </c>
+      <c r="B25" s="6">
         <v>1915</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="5">
+        <v>190000</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2.63</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.38</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26">
-        <v>1917</v>
+        <v>58</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1915</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="5">
+        <v>175000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27">
+        <v>59</v>
+      </c>
+      <c r="B27" s="6">
         <v>1917</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="5">
+        <v>276000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="5">
+        <v>120000</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28">
-        <v>1918</v>
+        <v>60</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1917</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="5">
+        <v>480000</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.48</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29">
-        <v>1940</v>
+        <v>61</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1918</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="5">
+        <v>600000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="5">
+        <v>380000</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.58</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30">
-        <v>1941</v>
+        <v>62</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1940</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.84</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31">
+        <v>63</v>
+      </c>
+      <c r="B31" s="6">
         <v>1941</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="5">
+        <v>41000</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.49</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1941</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33">
-        <v>1942</v>
+        <v>65</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34">
+        <v>66</v>
+      </c>
+      <c r="B34" s="6">
         <v>1942</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35">
+        <v>67</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="6">
         <v>1943</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="6">
         <v>1944</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38">
+        <v>70</v>
+      </c>
+      <c r="B38" s="6">
         <v>1944</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39">
+        <v>71</v>
+      </c>
+      <c r="B39" s="6">
         <v>1944</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40">
-        <v>1945</v>
+        <v>72</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1944</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41">
-        <v>1967</v>
+        <v>73</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1945</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42">
+        <v>74</v>
+      </c>
+      <c r="B42" s="6">
         <v>1967</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43">
+        <v>75</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="6">
         <v>1967</v>
       </c>
     </row>
@@ -1762,4 +2523,353 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDA07A0-2C62-46ED-8666-94270B660F99}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="16.5703125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="8">
+        <v>350</v>
+      </c>
+      <c r="C3" s="8">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="8">
+        <v>560</v>
+      </c>
+      <c r="C6" s="8">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="8">
+        <v>160</v>
+      </c>
+      <c r="C7" s="8">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="8">
+        <v>150</v>
+      </c>
+      <c r="C8" s="8">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="8">
+        <v>110</v>
+      </c>
+      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="8">
+        <v>167</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B75ED2-BAFD-401F-AFF4-DEC7F8C8832B}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531EB65B-DDF4-41F8-BC99-BDCAB28BD019}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="8" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="15.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="8">
+        <v>120</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="8">
+        <v>300</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.41</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="8">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NumsWars.xlsx
+++ b/NumsWars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9FA0CB-AC11-4EEC-838B-0BD915B83909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D64CD6C-8CEF-4975-83A8-6C7F6D698466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1-2" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Figure 1-8" sheetId="6" r:id="rId7"/>
     <sheet name="Figure 1-9" sheetId="8" r:id="rId8"/>
     <sheet name="Figure 2-3" sheetId="9" r:id="rId9"/>
+    <sheet name="Figure 2-4" sheetId="10" r:id="rId10"/>
+    <sheet name="Figure 2-5" sheetId="11" r:id="rId11"/>
+    <sheet name="Figure 3-1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="220">
   <si>
     <t>CASUALTY TRENDS 17TH TO 19TH CENTURIES</t>
   </si>
@@ -603,6 +606,159 @@
       </rPr>
       <t>√2</t>
     </r>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Successful, 28A, 14D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Where both sides attacked (as at Waterloo and Marne), relates to final posture; victor capitalized. </t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <t>PRUSSIANS</t>
+  </si>
+  <si>
+    <t>GERMANS</t>
+  </si>
+  <si>
+    <t>JAPANESE</t>
+  </si>
+  <si>
+    <t>BRITISH</t>
+  </si>
+  <si>
+    <t>RUSSIANS</t>
+  </si>
+  <si>
+    <t>ISRAILIS</t>
+  </si>
+  <si>
+    <t>CONFEDERATES</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Egyptians</t>
+  </si>
+  <si>
+    <t>Jordanians</t>
+  </si>
+  <si>
+    <t>Syrians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/13 Numerically inferior attackers successful. </t>
+  </si>
+  <si>
+    <t>18 victors numSup, %43</t>
+  </si>
+  <si>
+    <t>24 victors numInf, %57</t>
+  </si>
+  <si>
+    <t>WW1 Machine Gun</t>
+  </si>
+  <si>
+    <t>Historical Army Dispersion Patterns</t>
+  </si>
+  <si>
+    <t>Area occupied by deployed force 100000 strong (sq km)</t>
+  </si>
+  <si>
+    <t>Ancient Armies</t>
+  </si>
+  <si>
+    <t>American Civil War</t>
+  </si>
+  <si>
+    <t>WW1</t>
+  </si>
+  <si>
+    <t>WW2</t>
+  </si>
+  <si>
+    <t>Depth (km)</t>
+  </si>
+  <si>
+    <t>Width(km)</t>
+  </si>
+  <si>
+    <t>Dispersion Factor</t>
+  </si>
+  <si>
+    <t>TLI Values</t>
+  </si>
+  <si>
+    <t>Historical Period</t>
+  </si>
+  <si>
+    <t>Ancient or Medieval</t>
+  </si>
+  <si>
+    <t>17th Cent</t>
+  </si>
+  <si>
+    <t>18th Cent</t>
+  </si>
+  <si>
+    <t>Nap.Wars</t>
+  </si>
+  <si>
+    <t>Variable Effects Factors Quantified Judgement Model</t>
+  </si>
+  <si>
+    <t>A.Weapons Effects</t>
+  </si>
+  <si>
+    <t>1. Rate of Fire</t>
+  </si>
+  <si>
+    <t>2. Potential targets per strike</t>
+  </si>
+  <si>
+    <t>3. Relative incapacitating effect</t>
+  </si>
+  <si>
+    <t>4. Effective range(or muzzle velocity)</t>
+  </si>
+  <si>
+    <t>5. Accuracy</t>
+  </si>
+  <si>
+    <t>6. Reliability</t>
+  </si>
+  <si>
+    <t>7. Battlefield mobility</t>
+  </si>
+  <si>
+    <t>8. Radius of action</t>
+  </si>
+  <si>
+    <t>9. Punishment (vulnerability) factor</t>
+  </si>
+  <si>
+    <t>10-13. Armor performance factors(4)</t>
+  </si>
+  <si>
+    <t>14. Helicopter</t>
+  </si>
+  <si>
+    <t>15-21. Special weapons effects factors (7+)</t>
+  </si>
+  <si>
+    <t>22. Dispersion factor</t>
+  </si>
+  <si>
+    <t>B. Terrain Factors</t>
   </si>
 </sst>
 </file>
@@ -664,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -694,20 +850,23 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1263,6 +1422,334 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D313DB-1ACE-4F23-A560-2F0052E8D1F7}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>20.12</v>
+      </c>
+      <c r="D3">
+        <v>25.75</v>
+      </c>
+      <c r="E3">
+        <v>247.5</v>
+      </c>
+      <c r="F3">
+        <v>3100</v>
+      </c>
+      <c r="G3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5">
+        <v>6.67</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8.33</v>
+      </c>
+      <c r="E5">
+        <v>20.83</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>250</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+      <c r="G6">
+        <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478C0ECC-2613-49EB-B867-21EE8678B726}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+      <c r="I2">
+        <v>3000</v>
+      </c>
+      <c r="J2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4">
+        <v>495</v>
+      </c>
+      <c r="H4">
+        <f>B4/H2</f>
+        <v>1.98</v>
+      </c>
+      <c r="I4">
+        <f>B4/I2</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J4">
+        <f>B4/J2</f>
+        <v>0.12375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26F8444-B293-48CD-A01A-914D4AB7DC0D}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC1194B-8579-40BC-9904-C1B13E73A304}">
   <dimension ref="A1:D6"/>
@@ -1494,9 +1981,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="13" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="14"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1505,13 +1992,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1520,7 +2007,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>14.5</v>
       </c>
     </row>
@@ -1528,12 +2015,12 @@
       <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1541,7 +2028,7 @@
       <c r="B6" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>23.2</v>
       </c>
     </row>
@@ -1549,12 +2036,12 @@
       <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1562,7 +2049,7 @@
       <c r="B9" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1570,7 +2057,7 @@
       <c r="B10" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1.2</v>
       </c>
     </row>
@@ -1578,13 +2065,13 @@
       <c r="B11" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>25.5</v>
       </c>
       <c r="D11" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1592,13 +2079,13 @@
       <c r="B12" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>21.3</v>
       </c>
       <c r="D12" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0.9</v>
       </c>
     </row>
@@ -1613,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10186311-843E-4C55-9479-F410A926D5E2}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,7 +2266,7 @@
         <v>300000</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F7" s="5">
         <v>180000</v>
@@ -1831,7 +2318,7 @@
         <v>129000</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F9" s="5">
         <v>72000</v>
@@ -1909,7 +2396,7 @@
         <v>40335</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="F12" s="5">
         <v>62642</v>
@@ -1935,7 +2422,7 @@
         <v>80000</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="F13" s="5">
         <v>45000</v>
@@ -1961,7 +2448,7 @@
         <v>106000</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="F14" s="5">
         <v>77500</v>
@@ -1987,7 +2474,7 @@
         <v>161000</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="F15" s="5">
         <v>57352</v>
@@ -2013,7 +2500,7 @@
         <v>75000</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="F16" s="5">
         <v>88289</v>
@@ -2033,7 +2520,7 @@
         <v>1863</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="D17" s="5">
         <v>56359</v>
@@ -2065,7 +2552,7 @@
         <v>107907</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="F18" s="5">
         <v>63797</v>
@@ -2085,7 +2572,7 @@
         <v>1866</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D19" s="5">
         <v>220000</v>
@@ -2111,13 +2598,13 @@
         <v>1870</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D20" s="5">
         <v>190000</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F20" s="5">
         <v>110000</v>
@@ -2137,7 +2624,7 @@
         <v>1914</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D21" s="5">
         <v>1200000</v>
@@ -2163,7 +2650,7 @@
         <v>1914</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D22" s="5">
         <v>187000</v>
@@ -2189,7 +2676,7 @@
         <v>1914</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D23" s="5">
         <v>1200000</v>
@@ -2215,7 +2702,7 @@
         <v>1914</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D24" s="5">
         <v>288600</v>
@@ -2247,7 +2734,7 @@
         <v>500000</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="F25" s="5">
         <v>190000</v>
@@ -2267,7 +2754,7 @@
         <v>1915</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D26" s="5">
         <v>175000</v>
@@ -2299,7 +2786,7 @@
         <v>276000</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="F27" s="5">
         <v>120000</v>
@@ -2325,7 +2812,7 @@
         <v>1000000</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="F28" s="5">
         <v>480000</v>
@@ -2345,7 +2832,7 @@
         <v>1918</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D29" s="5">
         <v>600000</v>
@@ -2371,7 +2858,7 @@
         <v>1940</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D30" s="5">
         <v>2500000</v>
@@ -2397,7 +2884,7 @@
         <v>1941</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D31" s="5">
         <v>20000</v>
@@ -2422,101 +2909,365 @@
       <c r="B32" s="6">
         <v>1941</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="5">
+        <v>132000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="5">
+        <v>150000</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="5">
+        <v>60000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="5">
+        <v>130000</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="6">
         <v>1942</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="5">
+        <v>177000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="5">
+        <v>93000</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="6">
         <v>1942</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="5">
+        <v>800000</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="6">
         <v>1943</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="5">
+        <v>62000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="5">
+        <v>90000</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="6">
         <v>1944</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="5">
+        <v>41974</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="5">
+        <v>20496</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="6">
         <v>1944</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="5">
+        <v>14620</v>
+      </c>
+      <c r="E38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="5">
+        <v>12327</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="6">
         <v>1944</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="5">
+        <v>60794</v>
+      </c>
+      <c r="E39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="5">
+        <v>39580</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="6">
         <v>1944</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="5">
+        <v>8634</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="6">
         <v>1945</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="5">
+        <v>68000</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="5">
+        <v>22000</v>
+      </c>
+      <c r="G41" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="H41" s="4">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
       <c r="B42" s="6">
         <v>1967</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="5">
+        <v>54993</v>
+      </c>
+      <c r="E42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
       <c r="B43" s="6">
         <v>1967</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="5">
+        <v>45650</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="5">
+        <v>43300</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
       <c r="B44" s="6">
         <v>1967</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="5">
+        <v>40450</v>
+      </c>
+      <c r="E44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="5">
+        <v>60000</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2670,11 +3421,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -2716,9 +3467,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531EB65B-DDF4-41F8-BC99-BDCAB28BD019}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -2738,64 +3489,64 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="17" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="15" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2855,6 +3606,35 @@
       </c>
       <c r="I5" s="8">
         <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4000</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="I6" s="16">
+        <v>3463</v>
       </c>
     </row>
   </sheetData>

--- a/NumsWars.xlsx
+++ b/NumsWars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906EE41E-66F4-40AF-AFC0-58DD101ACBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D318AF-CC49-4BE5-BD5F-AC0FD3518232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="13" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
   </bookViews>
@@ -26,10 +26,11 @@
     <sheet name="Figure 2-5 OLI" sheetId="11" r:id="rId11"/>
     <sheet name="Figure 3-1" sheetId="12" r:id="rId12"/>
     <sheet name="Figure 4-1" sheetId="16" r:id="rId13"/>
-    <sheet name="Figure 4-3" sheetId="13" r:id="rId14"/>
-    <sheet name="Formulas" sheetId="14" r:id="rId15"/>
-    <sheet name="AppenB QJM DB" sheetId="17" r:id="rId16"/>
-    <sheet name="Tables" sheetId="15" r:id="rId17"/>
+    <sheet name="Table 5-2 Surprise" sheetId="18" r:id="rId14"/>
+    <sheet name="Figure 4-3" sheetId="13" r:id="rId15"/>
+    <sheet name="Formulas" sheetId="14" r:id="rId16"/>
+    <sheet name="AppenB QJM DB" sheetId="17" r:id="rId17"/>
+    <sheet name="Tables" sheetId="15" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="479">
   <si>
     <t>CASUALTY TRENDS 17TH TO 19TH CENTURIES</t>
   </si>
@@ -1270,18 +1271,9 @@
     <t>D-1</t>
   </si>
   <si>
-    <t>Year&amp;Date</t>
-  </si>
-  <si>
     <t>Battle Designation</t>
   </si>
   <si>
-    <t>ForceX Designation</t>
-  </si>
-  <si>
-    <t>ForceY Designation</t>
-  </si>
-  <si>
     <t>Nz</t>
   </si>
   <si>
@@ -1330,16 +1322,7 @@
     <t>SEy</t>
   </si>
   <si>
-    <t>1943, Sept 9-11</t>
-  </si>
-  <si>
     <t>Port of Salerno</t>
-  </si>
-  <si>
-    <t>B 46 ID</t>
-  </si>
-  <si>
-    <t>G 16 PzD</t>
   </si>
   <si>
     <t>PD</t>
@@ -1473,6 +1456,130 @@
   <si>
     <t>-1,48</t>
   </si>
+  <si>
+    <t xml:space="preserve">1943, Sept </t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Amphitheater</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>X Designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>46 ID</t>
+  </si>
+  <si>
+    <t>56 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G </t>
+  </si>
+  <si>
+    <t>16 PzD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForceY </t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>1944, Feb</t>
+  </si>
+  <si>
+    <t>16-19</t>
+  </si>
+  <si>
+    <t>Moletta River II</t>
+  </si>
+  <si>
+    <t>HPD</t>
+  </si>
+  <si>
+    <t>65 I &amp; 4 ParaD</t>
+  </si>
+  <si>
+    <t>Moletta River II, 16-19 February 1944</t>
+  </si>
+  <si>
+    <t>Engagement no.39</t>
+  </si>
+  <si>
+    <t>Manpower</t>
+  </si>
+  <si>
+    <t>Firepower (OLI, in thousands)</t>
+  </si>
+  <si>
+    <t>Combat Power (reflects variable factors of engagement)</t>
+  </si>
+  <si>
+    <t>Modified combat power (reflects combat effectiveness indices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result </t>
+  </si>
+  <si>
+    <t>Ratio theoretically consistent with result</t>
+  </si>
+  <si>
+    <t>Revised combat power (reflects surprise factor)</t>
+  </si>
+  <si>
+    <t>Effect of surprise</t>
+  </si>
+  <si>
+    <t>Allied</t>
+  </si>
+  <si>
+    <t>German
+Surpriser</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>1/2,20</t>
+  </si>
+  <si>
+    <t>1,60/1</t>
+  </si>
+  <si>
+    <t>7,22/1</t>
+  </si>
+  <si>
+    <t>5,22/1</t>
+  </si>
+  <si>
+    <t>-0,17</t>
+  </si>
+  <si>
+    <t>German success</t>
+  </si>
+  <si>
+    <t>1/1,03</t>
+  </si>
+  <si>
+    <t>1/1,02</t>
+  </si>
+  <si>
+    <t>1/5,32</t>
+  </si>
+  <si>
+    <t>(1,02*5,22)</t>
+  </si>
 </sst>
 </file>
 
@@ -1481,7 +1588,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1535,7 +1642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1563,6 +1670,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,7 +1779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1732,54 +1845,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1792,7 +1866,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1807,6 +1881,51 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2742,12 +2861,12 @@
       <c r="E3" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -4181,24 +4300,176 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E86365-36CA-4AD8-B316-397EF0227A9B}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9761</v>
+      </c>
+      <c r="C4" s="4">
+        <v>21478</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="4">
+        <v>89.97</v>
+      </c>
+      <c r="C5" s="4">
+        <v>56.24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" s="60">
+        <v>124.97</v>
+      </c>
+      <c r="C6" s="60">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="58">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="C7" s="58">
+        <v>12.29</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B8" s="59">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C8" s="59">
+        <v>5.03</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="E8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B10" s="4">
+        <v>56.75</v>
+      </c>
+      <c r="C10" s="4">
+        <v>57.95</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EEB02F-3E3C-4909-8B92-313AC51C4230}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="27"/>
     <col min="2" max="2" width="19.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="38"/>
-    <col min="5" max="5" width="16.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="49"/>
-    <col min="8" max="8" width="11.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="49"/>
+    <col min="3" max="3" width="25.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="30"/>
+    <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="36"/>
+    <col min="8" max="8" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="36"/>
+    <col min="11" max="11" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
@@ -4208,78 +4479,78 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="J2" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>407</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>408</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>410</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="J4" s="49" t="s">
-        <v>409</v>
-      </c>
-      <c r="K4" s="49" t="s">
+      <c r="J4" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="L4" s="49" t="s">
-        <v>409</v>
+      <c r="L4" s="36" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4299,19 +4570,19 @@
       <c r="D7" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="36">
         <v>27227</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="36">
         <v>21376</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="36">
         <v>17456</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="36">
         <v>16669</v>
       </c>
     </row>
@@ -4319,22 +4590,22 @@
       <c r="C8" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="36">
         <v>1</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="36">
         <v>0.9</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="36">
         <v>0.9</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="36">
         <v>0.9</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="36">
         <v>0.9</v>
       </c>
     </row>
@@ -4345,19 +4616,19 @@
       <c r="D9" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="36">
         <v>24504</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="36">
         <v>19238</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="36">
         <v>15710</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="36">
         <v>15002</v>
       </c>
     </row>
@@ -4370,30 +4641,42 @@
       <c r="C11" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="36">
         <v>35690</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="36">
         <v>56110</v>
+      </c>
+      <c r="K11" s="36">
+        <v>30034</v>
+      </c>
+      <c r="L11" s="36">
+        <v>18861</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="36">
         <v>1</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="36">
         <v>0.9</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="36">
         <v>0.9</v>
       </c>
     </row>
@@ -4401,16 +4684,22 @@
       <c r="C13" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="36">
         <v>2</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="36">
         <v>1</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="K13" s="36">
+        <v>1</v>
+      </c>
+      <c r="L13" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4418,33 +4707,45 @@
       <c r="C14" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="36">
         <v>3</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="36">
         <v>0.9</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="36">
         <v>0.9</v>
+      </c>
+      <c r="K14" s="36">
+        <v>1</v>
+      </c>
+      <c r="L14" s="36">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="36">
         <v>4</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L15" s="36">
         <v>0.9</v>
       </c>
     </row>
@@ -4455,14 +4756,20 @@
       <c r="D16" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="36">
         <v>31737</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="36">
         <v>40904</v>
+      </c>
+      <c r="K16" s="36">
+        <v>29734</v>
+      </c>
+      <c r="L16" s="36">
+        <v>15277</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -4474,16 +4781,16 @@
       <c r="C18" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="36">
         <v>9022</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="36">
         <v>9678</v>
       </c>
     </row>
@@ -4491,16 +4798,16 @@
       <c r="C19" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="36">
         <v>1</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="36">
         <v>0.8</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="36">
         <v>0.8</v>
       </c>
     </row>
@@ -4508,16 +4815,16 @@
       <c r="C20" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="36">
         <v>2</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="36">
         <v>1</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4528,13 +4835,13 @@
       <c r="D21" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="36">
         <v>7218</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="36">
         <v>7742</v>
       </c>
     </row>
@@ -4547,16 +4854,16 @@
       <c r="C23" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="36">
         <v>1011</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="36">
         <v>4333</v>
       </c>
     </row>
@@ -4564,16 +4871,16 @@
       <c r="C24" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="36">
         <v>1</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4581,16 +4888,16 @@
       <c r="C25" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="36">
         <v>2</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="36">
         <v>1</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4598,16 +4905,16 @@
       <c r="C26" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="36">
         <v>3</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="36">
         <v>1</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4615,16 +4922,16 @@
       <c r="C27" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="36">
         <v>4</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="36">
         <v>0.9</v>
       </c>
     </row>
@@ -4635,13 +4942,13 @@
       <c r="D28" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="36">
         <v>1112</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="36">
         <v>3900</v>
       </c>
     </row>
@@ -4652,22 +4959,22 @@
       <c r="C29" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="36">
         <v>11</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="36">
         <v>64569</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="36">
         <v>71784</v>
       </c>
-      <c r="K29" s="49">
+      <c r="K29" s="36">
         <v>103255</v>
       </c>
-      <c r="L29" s="49">
+      <c r="L29" s="36">
         <v>43565</v>
       </c>
     </row>
@@ -4690,16 +4997,16 @@
       <c r="C34" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="37" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4712,16 +5019,16 @@
       <c r="C36" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="36">
         <v>2</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="37" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4729,16 +5036,16 @@
       <c r="C37" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="36">
         <v>1</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="37" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4746,22 +5053,22 @@
       <c r="B38" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="36">
         <v>7</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G38" s="36">
         <v>1</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H38" s="36">
         <v>1109</v>
       </c>
-      <c r="K38" s="49">
+      <c r="K38" s="36">
         <v>1454</v>
       </c>
-      <c r="L38" s="49">
+      <c r="L38" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4789,23 +5096,23 @@
       <c r="C43" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="E43" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="G43" s="50" t="s">
+      <c r="E43" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="G43" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="K43" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="L43" s="50" t="s">
-        <v>440</v>
+      <c r="K43" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="L43" s="37" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -4822,24 +5129,24 @@
       <c r="B46" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="38">
         <v>0.85299999999999998</v>
       </c>
-      <c r="H46" s="51">
+      <c r="H46" s="38">
         <v>0.78200000000000003</v>
       </c>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51">
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38">
         <v>0.91</v>
       </c>
-      <c r="L46" s="51">
+      <c r="L46" s="38">
         <v>0.85099999999999998</v>
       </c>
     </row>
@@ -4852,22 +5159,22 @@
       <c r="C48" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="36">
         <v>1</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="36">
         <v>1.45</v>
       </c>
-      <c r="H48" s="49">
+      <c r="H48" s="36">
         <v>1</v>
       </c>
-      <c r="K48" s="49">
+      <c r="K48" s="36">
         <v>1</v>
       </c>
-      <c r="L48" s="54">
+      <c r="L48" s="41">
         <v>1.45</v>
       </c>
     </row>
@@ -4875,22 +5182,22 @@
       <c r="C49" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="36">
         <v>2</v>
       </c>
-      <c r="G49" s="49">
+      <c r="G49" s="36">
         <v>1</v>
       </c>
-      <c r="H49" s="49">
+      <c r="H49" s="36">
         <v>1</v>
       </c>
-      <c r="K49" s="49">
+      <c r="K49" s="36">
         <v>1</v>
       </c>
-      <c r="L49" s="49">
+      <c r="L49" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4898,22 +5205,22 @@
       <c r="C50" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="36">
         <v>3</v>
       </c>
-      <c r="G50" s="49">
+      <c r="G50" s="36">
         <v>1</v>
       </c>
-      <c r="H50" s="49">
+      <c r="H50" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K50" s="49">
+      <c r="K50" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L50" s="49">
+      <c r="L50" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4921,45 +5228,45 @@
       <c r="C51" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51" s="36">
         <v>5</v>
       </c>
-      <c r="G51" s="49">
+      <c r="G51" s="36">
         <v>1.3</v>
       </c>
-      <c r="H51" s="49">
+      <c r="H51" s="36">
         <v>1</v>
       </c>
-      <c r="K51" s="49">
+      <c r="K51" s="36">
         <v>1</v>
       </c>
-      <c r="L51" s="49">
+      <c r="L51" s="36">
         <v>1.6</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G52" s="49">
+      <c r="G52" s="36">
         <v>1</v>
       </c>
-      <c r="H52" s="49">
+      <c r="H52" s="36">
         <v>1</v>
       </c>
-      <c r="K52" s="49">
+      <c r="K52" s="36">
         <v>0.8</v>
       </c>
-      <c r="L52" s="49">
+      <c r="L52" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4967,22 +5274,22 @@
       <c r="C53" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G53" s="49">
+      <c r="G53" s="36">
         <v>0.76400000000000001</v>
       </c>
-      <c r="H53" s="49">
+      <c r="H53" s="36">
         <v>0.89700000000000002</v>
       </c>
-      <c r="K53" s="51">
+      <c r="K53" s="38">
         <v>0.82</v>
       </c>
-      <c r="L53" s="49">
+      <c r="L53" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4990,22 +5297,22 @@
       <c r="C54" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="E54" s="49">
+      <c r="E54" s="36">
         <v>7</v>
       </c>
-      <c r="G54" s="49">
+      <c r="G54" s="36">
         <v>1</v>
       </c>
-      <c r="H54" s="49">
+      <c r="H54" s="36">
         <v>1</v>
       </c>
-      <c r="K54" s="49">
+      <c r="K54" s="36">
         <v>1</v>
       </c>
-      <c r="L54" s="49">
+      <c r="L54" s="36">
         <v>0.9</v>
       </c>
     </row>
@@ -5013,22 +5320,22 @@
       <c r="C55" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="G55" s="49">
+      <c r="G55" s="36">
         <v>1</v>
       </c>
-      <c r="H55" s="49">
+      <c r="H55" s="36">
         <v>1</v>
       </c>
-      <c r="K55" s="49">
+      <c r="K55" s="36">
         <v>1</v>
       </c>
-      <c r="L55" s="49">
+      <c r="L55" s="36">
         <v>0.8</v>
       </c>
     </row>
@@ -5036,49 +5343,49 @@
       <c r="B56" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="G56" s="49">
+      <c r="G56" s="36">
         <v>79355</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H56" s="36">
         <v>61447</v>
       </c>
-      <c r="K56" s="49">
+      <c r="K56" s="36">
         <v>98586</v>
       </c>
-      <c r="L56" s="49">
+      <c r="L56" s="36">
         <v>61928</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="41" t="s">
+      <c r="C57" s="47"/>
+      <c r="D57" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53">
+      <c r="F57" s="40"/>
+      <c r="G57" s="40">
         <v>1.29</v>
       </c>
-      <c r="H57" s="53">
+      <c r="H57" s="40">
         <v>1.29</v>
       </c>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="55">
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="42">
         <v>1.59</v>
       </c>
-      <c r="L57" s="55">
+      <c r="L57" s="42">
         <v>1.59</v>
       </c>
     </row>
@@ -5091,22 +5398,22 @@
       <c r="C60" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="36">
         <v>8</v>
       </c>
-      <c r="G60" s="49">
+      <c r="G60" s="36">
         <v>8</v>
       </c>
-      <c r="H60" s="49">
+      <c r="H60" s="36">
         <v>5</v>
       </c>
-      <c r="K60" s="49">
+      <c r="K60" s="36">
         <v>4</v>
       </c>
-      <c r="L60" s="49">
+      <c r="L60" s="36">
         <v>6</v>
       </c>
     </row>
@@ -5114,22 +5421,22 @@
       <c r="C61" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="G61" s="49">
+      <c r="G61" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H61" s="49">
+      <c r="H61" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K61" s="54">
+      <c r="K61" s="41">
         <v>0.39</v>
       </c>
-      <c r="L61" s="54">
+      <c r="L61" s="41">
         <v>0.62</v>
       </c>
     </row>
@@ -5137,73 +5444,73 @@
       <c r="C62" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E62" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="G62" s="49">
+      <c r="G62" s="36">
         <v>-1.03</v>
       </c>
-      <c r="H62" s="49">
+      <c r="H62" s="36">
         <v>-0.66</v>
       </c>
-      <c r="K62" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="L62" s="50" t="s">
-        <v>442</v>
+      <c r="K62" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="L62" s="37" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="G63" s="49">
+      <c r="G63" s="36">
         <v>7.55</v>
       </c>
-      <c r="H63" s="49">
+      <c r="H63" s="36">
         <v>4.92</v>
       </c>
-      <c r="K63" s="54">
+      <c r="K63" s="41">
         <v>2.44</v>
       </c>
-      <c r="L63" s="54">
+      <c r="L63" s="41">
         <v>3.92</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="41" t="s">
+      <c r="C64" s="31"/>
+      <c r="D64" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53">
+      <c r="F64" s="40"/>
+      <c r="G64" s="40">
         <v>2.63</v>
       </c>
-      <c r="H64" s="53">
+      <c r="H64" s="40">
         <v>2.63</v>
       </c>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="52" t="s">
-        <v>443</v>
-      </c>
-      <c r="L64" s="52" t="s">
-        <v>443</v>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -5220,7 +5527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E595E6-1C5F-4870-922A-95ABA20A01F5}">
   <dimension ref="A1:D63"/>
   <sheetViews>
@@ -5237,12 +5544,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="18"/>
@@ -5255,7 +5562,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -5267,37 +5574,37 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C11" s="18"/>
     </row>
@@ -5306,16 +5613,16 @@
         <v>244</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C13" s="18"/>
     </row>
@@ -5335,12 +5642,12 @@
       <c r="C18" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="A20" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
@@ -5369,12 +5676,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
@@ -5391,12 +5698,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
@@ -5413,12 +5720,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
@@ -5435,12 +5742,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
@@ -5653,182 +5960,354 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19165018-302E-49ED-84D3-E08C506E1FF7}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="5"/>
-    <col min="16" max="16" width="9.140625" style="37"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="5"/>
+    <col min="16" max="16" width="9.140625" style="29"/>
+    <col min="18" max="19" width="9.140625" style="29"/>
+    <col min="24" max="25" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>378</v>
       </c>
       <c r="B1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>380</v>
       </c>
-      <c r="C1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1" t="s">
-        <v>382</v>
-      </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>442</v>
       </c>
       <c r="F1" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="G1" t="s">
         <v>308</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="M1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N1" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="O1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>386</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="L1" t="s">
-        <v>252</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="S1" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>389</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>390</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="V1" t="s">
         <v>391</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>392</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>396</v>
       </c>
-      <c r="V1" t="s">
-        <v>397</v>
-      </c>
-      <c r="W1" t="s">
-        <v>398</v>
-      </c>
-      <c r="X1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>379</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" t="s">
-        <v>401</v>
+        <v>438</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>439</v>
       </c>
       <c r="D2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" t="s">
         <v>232</v>
       </c>
-      <c r="F2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="H2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K2" s="5">
         <v>12917</v>
       </c>
-      <c r="I2" s="5">
+      <c r="L2" s="5">
         <v>4250</v>
       </c>
-      <c r="J2" s="37">
+      <c r="M2" s="29">
         <v>1.83</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>22</v>
       </c>
-      <c r="M2">
+      <c r="P2" s="29">
         <v>0.73</v>
       </c>
-      <c r="O2">
+      <c r="R2" s="29">
         <v>1.5</v>
       </c>
-      <c r="P2" s="37">
+      <c r="S2" s="29">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>0.87</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>0.79</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>3.51</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>0.94</v>
       </c>
-      <c r="U2">
+      <c r="X2" s="57">
         <v>7.4</v>
       </c>
-      <c r="V2">
+      <c r="Y2" s="57">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>1.02</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <v>3.85</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="I3" s="5">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" t="s">
+        <v>447</v>
+      </c>
+      <c r="I3" t="s">
+        <v>448</v>
+      </c>
+      <c r="J3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K3" s="5">
+        <v>12917</v>
+      </c>
+      <c r="L3" s="5">
         <v>4250</v>
+      </c>
+      <c r="M3">
+        <v>1.34</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
+      </c>
+      <c r="P3" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="R3" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="S3" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="T3" s="29">
+        <v>0.82</v>
+      </c>
+      <c r="U3" s="29">
+        <v>0.46</v>
+      </c>
+      <c r="V3" s="29">
+        <v>2.68</v>
+      </c>
+      <c r="W3" s="29">
+        <v>0.78</v>
+      </c>
+      <c r="X3" s="57">
+        <v>6.7</v>
+      </c>
+      <c r="Y3" s="57">
+        <v>1.8</v>
+      </c>
+      <c r="Z3" s="29">
+        <v>0.99</v>
+      </c>
+      <c r="AA3" s="29">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I4" t="s">
+        <v>455</v>
+      </c>
+      <c r="J4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="5">
+        <v>20496</v>
+      </c>
+      <c r="L4" s="5">
+        <v>41974</v>
+      </c>
+      <c r="M4">
+        <v>0.92</v>
+      </c>
+      <c r="N4">
+        <v>31</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4" s="29">
+        <v>2.02</v>
+      </c>
+      <c r="T4">
+        <v>1.69</v>
+      </c>
+      <c r="U4">
+        <v>0.83</v>
+      </c>
+      <c r="V4">
+        <v>1.58</v>
+      </c>
+      <c r="W4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="X4" s="57">
+        <v>5.3</v>
+      </c>
+      <c r="Y4" s="57">
+        <v>6</v>
+      </c>
+      <c r="Z4">
+        <v>1.88</v>
+      </c>
+      <c r="AA4">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -5837,7 +6316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8426450-9649-4589-8A5F-C2871945E9AF}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -5852,118 +6331,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="A1" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>431</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="34" t="s">
         <v>425</v>
       </c>
+      <c r="E3" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>434</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="35">
         <v>1</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="35">
         <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="B6" s="48">
+      <c r="A6" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="35">
         <v>1</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="35">
         <v>1</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="B7" s="48">
+      <c r="A7" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="B7" s="35">
         <v>0.9</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="35">
         <v>1</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="35">
         <v>0.9</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="35">
         <v>0.8</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="35">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -6221,10 +6700,10 @@
       <c r="C2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7647,11 +8126,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -7718,59 +8197,59 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="15" t="s">
         <v>160</v>
       </c>

--- a/NumsWars.xlsx
+++ b/NumsWars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D318AF-CC49-4BE5-BD5F-AC0FD3518232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F76CA1-6ECB-4D0D-AB01-7638DA075403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="13" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="16" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1-2" sheetId="3" r:id="rId1"/>
@@ -26,11 +26,12 @@
     <sheet name="Figure 2-5 OLI" sheetId="11" r:id="rId11"/>
     <sheet name="Figure 3-1" sheetId="12" r:id="rId12"/>
     <sheet name="Figure 4-1" sheetId="16" r:id="rId13"/>
-    <sheet name="Table 5-2 Surprise" sheetId="18" r:id="rId14"/>
+    <sheet name="Tables 5-2&amp;6 Surprise" sheetId="18" r:id="rId14"/>
     <sheet name="Figure 4-3" sheetId="13" r:id="rId15"/>
     <sheet name="Formulas" sheetId="14" r:id="rId16"/>
-    <sheet name="AppenB QJM DB" sheetId="17" r:id="rId17"/>
-    <sheet name="Tables" sheetId="15" r:id="rId18"/>
+    <sheet name="Figure 6-1" sheetId="20" r:id="rId17"/>
+    <sheet name="AppenB QJM DB" sheetId="17" r:id="rId18"/>
+    <sheet name="Tables" sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="552">
   <si>
     <t>CASUALTY TRENDS 17TH TO 19TH CENTURIES</t>
   </si>
@@ -515,10 +516,6 @@
   <si>
     <t>Rate of Fire
 Strikes/hour</t>
-  </si>
-  <si>
-    <t>Relative
-Effectiveness</t>
   </si>
   <si>
     <t>Targets
@@ -550,9 +547,6 @@
   </si>
   <si>
     <t>Total TLI</t>
-  </si>
-  <si>
-    <t>Endurance</t>
   </si>
   <si>
     <t>Mobility</t>
@@ -1538,9 +1532,6 @@
     <t>Revised combat power (reflects surprise factor)</t>
   </si>
   <si>
-    <t>Effect of surprise</t>
-  </si>
-  <si>
     <t>Allied</t>
   </si>
   <si>
@@ -1563,12 +1554,6 @@
     <t>5,22/1</t>
   </si>
   <si>
-    <t>-0,17</t>
-  </si>
-  <si>
-    <t>German success</t>
-  </si>
-  <si>
     <t>1/1,03</t>
   </si>
   <si>
@@ -1579,6 +1564,288 @@
   </si>
   <si>
     <t>(1,02*5,22)</t>
+  </si>
+  <si>
+    <t>-0,17 German success</t>
+  </si>
+  <si>
+    <t>Effect of surprise (</t>
+  </si>
+  <si>
+    <t>Velletri, 26 May 1944</t>
+  </si>
+  <si>
+    <t>Engagement no.54</t>
+  </si>
+  <si>
+    <t>1,19/1</t>
+  </si>
+  <si>
+    <t>2,18/1</t>
+  </si>
+  <si>
+    <t>1,51/1</t>
+  </si>
+  <si>
+    <t>-1,48 German success</t>
+  </si>
+  <si>
+    <t>1/1,11</t>
+  </si>
+  <si>
+    <t>1/1,30*</t>
+  </si>
+  <si>
+    <t>*Exceptional German leadership and standard American leadership on this date should raise this ratio closer to 1/1,30.</t>
+  </si>
+  <si>
+    <t>1/1,68</t>
+  </si>
+  <si>
+    <t>(1,11*1,51)</t>
+  </si>
+  <si>
+    <t>1944, May</t>
+  </si>
+  <si>
+    <t>Velletri</t>
+  </si>
+  <si>
+    <t>1 AD</t>
+  </si>
+  <si>
+    <t>362 ID</t>
+  </si>
+  <si>
+    <t>Bowling Alley</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>45 ID</t>
+  </si>
+  <si>
+    <t>Four D</t>
+  </si>
+  <si>
+    <t>12-14</t>
+  </si>
+  <si>
+    <t>Vietri I</t>
+  </si>
+  <si>
+    <t>HG PzD</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>Herman Goering</t>
+  </si>
+  <si>
+    <t>German main effort at Anzio to smash the beachead was stopped with combined help of naval gunfire and CAS</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>Without naval gunfire support the 46th Division would probably have been pushed into the sea.</t>
+  </si>
+  <si>
+    <t>17-18</t>
+  </si>
+  <si>
+    <t>Vietri II</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>Battipaglia</t>
+  </si>
+  <si>
+    <t>Targets per strike</t>
+  </si>
+  <si>
+    <t>Range Factor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Lethality index </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for stationary, towed, or carried weapons</t>
+    </r>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Relative Incapacitating Effect</t>
+  </si>
+  <si>
+    <t>Relative Incap
+Effectiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor has been selected for each weapon on the basis of historical experience, to represent the likelihood that an individual blow if it hits to the target will incapacitate the target. </t>
+  </si>
+  <si>
+    <t>Multiplication of these factors</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Lethality index </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for mobile fighting machines</t>
+    </r>
+  </si>
+  <si>
+    <t>Summed total of lethality indices of all weapons</t>
+  </si>
+  <si>
+    <t>Punishment factor</t>
+  </si>
+  <si>
+    <t>Rapidity of fire effect</t>
+  </si>
+  <si>
+    <t>Fire control effect</t>
+  </si>
+  <si>
+    <t>Ammunition supply effect</t>
+  </si>
+  <si>
+    <t>Ceiling effect</t>
+  </si>
+  <si>
+    <t>WW1 Tank</t>
+  </si>
+  <si>
+    <t>√0,5</t>
+  </si>
+  <si>
+    <t>√1,5</t>
+  </si>
+  <si>
+    <r>
+      <t>3000*9/4*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>√18</t>
+    </r>
+  </si>
+  <si>
+    <t>WW I Tank</t>
+  </si>
+  <si>
+    <t>Mobility
+√0,1*speed</t>
+  </si>
+  <si>
+    <t>Endurance
+√0,01*range</t>
+  </si>
+  <si>
+    <t>Constant factor</t>
+  </si>
+  <si>
+    <t>weight-tons/4</t>
+  </si>
+  <si>
+    <t>√2*weight (tons)</t>
+  </si>
+  <si>
+    <t>Reflection of the effect of troop dispersion in relation to firepower</t>
+  </si>
+  <si>
+    <t>Radius of action (or endurance) factor 
+√0,01*range</t>
+  </si>
+  <si>
+    <t>Mobility (or speed) factor
+√0,1*speed</t>
+  </si>
+  <si>
+    <t>Analysis of Air Support Significance</t>
+  </si>
+  <si>
+    <t>Eng No</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>Tobacco Factory</t>
+  </si>
+  <si>
+    <t>16&amp;29 PzD</t>
+  </si>
+  <si>
+    <t>Actual Combat 
+Power Potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Combat Power &amp; Outcome Pf/Pe </t>
+  </si>
+  <si>
+    <t>Succ</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Close Air Support Analysis</t>
+  </si>
+  <si>
+    <t>Close Air Effort in OLI</t>
+  </si>
+  <si>
+    <t>Effect of Eliminating Close Air Support</t>
+  </si>
+  <si>
+    <t>Modified Combat Power</t>
+  </si>
+  <si>
+    <t>Modified 
+Pf/Pe</t>
+  </si>
+  <si>
+    <t>Changed
+Outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value of Pf/Pe is so changed by the elimination of CAS that, in the light of the known outcome of te engagements, the results would have been certain or likely to change. CAS had possibly been responsible for the Allied success in Eng 6. </t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1857,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1641,8 +1908,17 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1676,6 +1952,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,7 +2091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1881,6 +2193,24 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1893,11 +2223,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1920,18 +2253,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2486,24 +2888,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
         <v>190</v>
-      </c>
-      <c r="E2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" t="s">
-        <v>192</v>
       </c>
       <c r="G2">
         <v>1973</v>
@@ -2511,7 +2913,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2534,7 +2936,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4">
         <v>0.15</v>
@@ -2557,7 +2959,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>6.67</v>
@@ -2580,7 +2982,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2608,74 +3010,90 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478C0ECC-2613-49EB-B867-21EE8678B726}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="53"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>377</v>
-      </c>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="E2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="H2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2">
+      <c r="H2" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="54">
         <v>1975</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="88">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="87">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="87">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="87">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="87">
         <v>25</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="87">
         <v>250</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="87">
         <v>3000</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="87">
         <v>4000</v>
       </c>
     </row>
@@ -2683,63 +3101,80 @@
       <c r="A4" t="s">
         <v>151</v>
       </c>
-      <c r="B4" t="s">
-        <v>196</v>
+      <c r="B4" s="53" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B5">
+        <v>373</v>
+      </c>
+      <c r="B5" s="53">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="53">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="53">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="53">
         <v>0.9</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="53">
         <v>0.09</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="53">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="53">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6">
+        <v>163</v>
+      </c>
+      <c r="B6" s="53">
         <v>495</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="53">
         <f>B6/H3</f>
         <v>1.98</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="53">
         <f>B6/I3</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="53">
         <f>B6/J3</f>
         <v>0.12375</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" s="76">
+        <v>34636</v>
+      </c>
+      <c r="H7" s="53">
+        <v>139</v>
+      </c>
+      <c r="I7" s="53">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2756,82 +3191,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2851,69 +3286,69 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="G4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
       <c r="G5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G7" s="27">
         <v>126</v>
@@ -2941,10 +3376,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -2975,13 +3410,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G9" s="27">
         <v>113.4</v>
@@ -3009,7 +3444,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -3031,10 +3466,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E11" s="16"/>
       <c r="G11" s="27"/>
@@ -3055,10 +3490,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
@@ -3081,10 +3516,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E13" s="16">
         <v>2</v>
@@ -3107,10 +3542,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E14" s="16">
         <v>3</v>
@@ -3133,10 +3568,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E15" s="16">
         <v>4</v>
@@ -3159,13 +3594,13 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -3185,7 +3620,7 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -3207,13 +3642,13 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -3233,10 +3668,10 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E19" s="16">
         <v>1</v>
@@ -3259,10 +3694,10 @@
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E20" s="16">
         <v>2</v>
@@ -3285,13 +3720,13 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -3311,7 +3746,7 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -3333,13 +3768,13 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -3359,10 +3794,10 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E24" s="16">
         <v>1</v>
@@ -3385,10 +3820,10 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E25" s="16">
         <v>2</v>
@@ -3411,10 +3846,10 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E26" s="16">
         <v>3</v>
@@ -3437,10 +3872,10 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E27" s="16">
         <v>4</v>
@@ -3463,13 +3898,13 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -3489,13 +3924,13 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E29" s="16">
         <v>11</v>
@@ -3545,7 +3980,7 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -3567,7 +4002,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -3589,21 +4024,21 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="G33" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
@@ -3619,13 +4054,13 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
@@ -3641,7 +4076,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -3663,25 +4098,25 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E36" s="16">
         <v>2</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
@@ -3697,25 +4132,25 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E37" s="16">
         <v>1</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
@@ -3731,13 +4166,13 @@
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G38" s="27">
         <v>1.1000000000000001</v>
@@ -3765,7 +4200,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -3787,7 +4222,7 @@
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -3809,7 +4244,7 @@
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -3831,25 +4266,25 @@
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E42" s="16">
         <v>8</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
@@ -3865,7 +4300,7 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -3887,7 +4322,7 @@
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -3909,7 +4344,7 @@
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -3931,13 +4366,13 @@
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G46" s="27">
         <v>0.9</v>
@@ -3965,7 +4400,7 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -3987,10 +4422,10 @@
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E48" s="16">
         <v>1</v>
@@ -4021,10 +4456,10 @@
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E49" s="16">
         <v>2</v>
@@ -4055,10 +4490,10 @@
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E50" s="16">
         <v>3</v>
@@ -4089,10 +4524,10 @@
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E51" s="16">
         <v>5</v>
@@ -4123,13 +4558,13 @@
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G52" s="27">
         <v>1</v>
@@ -4157,13 +4592,13 @@
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G53" s="27">
         <v>0.9</v>
@@ -4191,10 +4626,10 @@
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E54" s="16">
         <v>7</v>
@@ -4225,13 +4660,13 @@
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G55" s="27">
         <v>1</v>
@@ -4259,13 +4694,13 @@
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>285</v>
+      </c>
+      <c r="D56" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D56" s="16" t="s">
-        <v>289</v>
-      </c>
       <c r="E56" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G56" s="27">
         <v>111.1</v>
@@ -4301,10 +4736,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E86365-36CA-4AD8-B316-397EF0227A9B}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4313,139 +4748,240 @@
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="60" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="G2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="G3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" s="5">
+        <v>9761</v>
+      </c>
+      <c r="C5" s="5">
+        <v>21478</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="G5" s="5">
+        <v>14620</v>
+      </c>
+      <c r="H5" s="5">
+        <v>12327</v>
+      </c>
+      <c r="I5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B6" s="4">
+        <v>89.97</v>
+      </c>
+      <c r="C6" s="4">
+        <v>56.24</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G6">
+        <v>113.52</v>
+      </c>
+      <c r="H6">
+        <v>52.16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="47">
+        <v>124.97</v>
+      </c>
+      <c r="C7" s="47">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="D7" s="47" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" s="4">
-        <v>9761</v>
-      </c>
-      <c r="C4" s="4">
-        <v>21478</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="G7">
+        <v>117.63</v>
+      </c>
+      <c r="H7">
+        <v>73.52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" s="45">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="C8" s="45">
+        <v>12.29</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B5" s="4">
-        <v>89.97</v>
-      </c>
-      <c r="C5" s="4">
-        <v>56.24</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="G8" s="17">
+        <v>81.16</v>
+      </c>
+      <c r="H8" s="17">
+        <v>53.67</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" s="46">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C9" s="46">
+        <v>5.03</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="G9" s="20">
+        <v>2.44</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3.92</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="50" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B6" s="60">
-        <v>124.97</v>
-      </c>
-      <c r="C6" s="60">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="D6" s="60" t="s">
+      <c r="I10" s="50" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" s="4">
+        <v>56.75</v>
+      </c>
+      <c r="C11" s="4">
+        <v>57.95</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B7" s="58">
-        <v>64.150000000000006</v>
-      </c>
-      <c r="C7" s="58">
-        <v>12.29</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="G11">
+        <v>51.29</v>
+      </c>
+      <c r="H11">
+        <v>57.15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="45" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B8" s="59">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="C8" s="59">
-        <v>5.03</v>
-      </c>
-      <c r="D8" s="61" t="s">
+      <c r="E12" t="s">
         <v>473</v>
       </c>
-      <c r="E8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>463</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>464</v>
-      </c>
-      <c r="B10" s="4">
-        <v>56.75</v>
-      </c>
-      <c r="C10" s="4">
-        <v>57.95</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E11" t="s">
-        <v>478</v>
+      <c r="I12" t="s">
+        <v>485</v>
+      </c>
+      <c r="J12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B11/B8</f>
+        <v>0.88464536243180036</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4475,103 +5011,103 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>226</v>
-      </c>
       <c r="F2" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F3" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>230</v>
-      </c>
       <c r="I3" s="36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J3" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="K3" s="36" t="s">
-        <v>404</v>
-      </c>
       <c r="L3" s="36" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G7" s="36">
         <v>27227</v>
@@ -4588,10 +5124,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E8" s="36">
         <v>1</v>
@@ -4611,13 +5147,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G9" s="36">
         <v>24504</v>
@@ -4634,15 +5170,15 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G11" s="36">
         <v>35690</v>
@@ -4659,10 +5195,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E12" s="36">
         <v>1</v>
@@ -4682,10 +5218,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E13" s="36">
         <v>2</v>
@@ -4705,10 +5241,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E14" s="36">
         <v>3</v>
@@ -4728,10 +5264,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E15" s="36">
         <v>4</v>
@@ -4751,13 +5287,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G16" s="36">
         <v>31737</v>
@@ -4774,18 +5310,18 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C18" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G18" s="36">
         <v>9022</v>
@@ -4796,10 +5332,10 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C19" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E19" s="36">
         <v>1</v>
@@ -4813,10 +5349,10 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C20" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E20" s="36">
         <v>2</v>
@@ -4830,13 +5366,13 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G21" s="36">
         <v>7218</v>
@@ -4847,18 +5383,18 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C23" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G23" s="36">
         <v>1011</v>
@@ -4869,10 +5405,10 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C24" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E24" s="36">
         <v>1</v>
@@ -4886,10 +5422,10 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C25" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E25" s="36">
         <v>2</v>
@@ -4903,10 +5439,10 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C26" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E26" s="36">
         <v>3</v>
@@ -4920,10 +5456,10 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C27" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E27" s="36">
         <v>4</v>
@@ -4937,13 +5473,13 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G28" s="36">
         <v>1112</v>
@@ -4954,13 +5490,13 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E29" s="36">
         <v>11</v>
@@ -4980,81 +5516,81 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C32" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C33" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C34" s="27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D34" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>263</v>
-      </c>
       <c r="H34" s="37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C35" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C36" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E36" s="36">
         <v>2</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C37" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E37" s="36">
         <v>1</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E38" s="36">
         <v>7</v>
@@ -5074,66 +5610,66 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C40" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C41" s="27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C42" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E43" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="L43" s="37" t="s">
         <v>432</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="K43" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="L43" s="37" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C44" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C45" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G46" s="38">
         <v>0.85299999999999998</v>
@@ -5152,15 +5688,15 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C48" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E48" s="36">
         <v>1</v>
@@ -5180,10 +5716,10 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C49" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E49" s="36">
         <v>2</v>
@@ -5203,10 +5739,10 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C50" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E50" s="36">
         <v>3</v>
@@ -5226,10 +5762,10 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C51" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E51" s="36">
         <v>5</v>
@@ -5249,13 +5785,13 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C52" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G52" s="36">
         <v>1</v>
@@ -5272,13 +5808,13 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C53" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G53" s="36">
         <v>0.76400000000000001</v>
@@ -5295,10 +5831,10 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C54" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E54" s="36">
         <v>7</v>
@@ -5318,13 +5854,13 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C55" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G55" s="36">
         <v>1</v>
@@ -5341,13 +5877,13 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>289</v>
-      </c>
       <c r="E56" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G56" s="36">
         <v>79355</v>
@@ -5363,15 +5899,15 @@
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="61"/>
+      <c r="D57" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="32" t="s">
-        <v>290</v>
-      </c>
       <c r="E57" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="40">
@@ -5391,15 +5927,15 @@
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C60" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E60" s="36">
         <v>8</v>
@@ -5419,13 +5955,13 @@
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C61" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G61" s="36">
         <v>0.57999999999999996</v>
@@ -5442,13 +5978,13 @@
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C62" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G62" s="36">
         <v>-1.03</v>
@@ -5457,21 +5993,21 @@
         <v>-0.66</v>
       </c>
       <c r="K62" s="37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L62" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G63" s="36">
         <v>7.55</v>
@@ -5488,14 +6024,14 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F64" s="40"/>
       <c r="G64" s="40">
@@ -5507,15 +6043,15 @@
       <c r="I64" s="40"/>
       <c r="J64" s="40"/>
       <c r="K64" s="39" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L64" s="39" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5532,7 +6068,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5544,12 +6080,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="A1" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="18"/>
@@ -5562,7 +6098,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -5574,55 +6110,55 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C13" s="18"/>
     </row>
@@ -5642,12 +6178,12 @@
       <c r="C18" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
@@ -5655,307 +6191,307 @@
         <v>151</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C22" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C24" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C26" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C28" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B49" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B50" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B62" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5972,11 +6508,168 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A12A17-5E28-4749-94F5-7EA388CACD60}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>536</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89" t="s">
+        <v>542</v>
+      </c>
+      <c r="E2" s="89"/>
+      <c r="F2" s="95" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="96" t="s">
+        <v>546</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="92" t="s">
+        <v>547</v>
+      </c>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+    </row>
+    <row r="4" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4" s="89"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="93" t="s">
+        <v>548</v>
+      </c>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94" t="s">
+        <v>549</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
+      <c r="B5" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="82">
+        <v>108296</v>
+      </c>
+      <c r="C6" s="82">
+        <v>34405</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="82">
+        <v>15750</v>
+      </c>
+      <c r="G6" s="82">
+        <v>2429</v>
+      </c>
+      <c r="H6" s="82">
+        <v>92546</v>
+      </c>
+      <c r="I6" s="82">
+        <v>31976</v>
+      </c>
+      <c r="J6" s="41">
+        <v>2.89</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="B2:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19165018-302E-49ED-84D3-E08C506E1FF7}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5988,124 +6681,125 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.140625" style="5"/>
+    <col min="13" max="13" width="9.140625" style="29"/>
     <col min="16" max="16" width="9.140625" style="29"/>
     <col min="18" max="19" width="9.140625" style="29"/>
-    <col min="24" max="25" width="9.140625" style="57"/>
+    <col min="24" max="25" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="N1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="T1" t="s">
+        <v>387</v>
+      </c>
+      <c r="U1" t="s">
+        <v>388</v>
+      </c>
+      <c r="V1" t="s">
+        <v>389</v>
+      </c>
+      <c r="W1" t="s">
+        <v>390</v>
+      </c>
+      <c r="X1" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y1" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" t="s">
         <v>442</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>443</v>
       </c>
-      <c r="G1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H1" t="s">
-        <v>449</v>
-      </c>
-      <c r="I1" t="s">
-        <v>450</v>
-      </c>
-      <c r="J1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="M1" t="s">
-        <v>383</v>
-      </c>
-      <c r="N1" t="s">
-        <v>384</v>
-      </c>
-      <c r="O1" t="s">
-        <v>252</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>386</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="T1" t="s">
-        <v>389</v>
-      </c>
-      <c r="U1" t="s">
-        <v>390</v>
-      </c>
-      <c r="V1" t="s">
-        <v>391</v>
-      </c>
-      <c r="W1" t="s">
-        <v>392</v>
-      </c>
-      <c r="X1" s="57" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y1" s="57" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="G2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J2" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="D2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I2" t="s">
-        <v>448</v>
-      </c>
-      <c r="J2" t="s">
-        <v>398</v>
       </c>
       <c r="K2" s="5">
         <v>12917</v>
@@ -6143,10 +6837,10 @@
       <c r="W2">
         <v>0.94</v>
       </c>
-      <c r="X2" s="57">
+      <c r="X2" s="44">
         <v>7.4</v>
       </c>
-      <c r="Y2" s="57">
+      <c r="Y2" s="44">
         <v>2.2999999999999998</v>
       </c>
       <c r="Z2">
@@ -6156,36 +6850,36 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" t="s">
         <v>439</v>
       </c>
-      <c r="D3" t="s">
-        <v>441</v>
-      </c>
       <c r="E3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3" t="s">
         <v>444</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I3" t="s">
         <v>446</v>
       </c>
-      <c r="G3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H3" t="s">
-        <v>447</v>
-      </c>
-      <c r="I3" t="s">
-        <v>448</v>
-      </c>
       <c r="J3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K3" s="5">
         <v>12917</v>
@@ -6193,7 +6887,7 @@
       <c r="L3" s="5">
         <v>4250</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="29">
         <v>1.34</v>
       </c>
       <c r="N3">
@@ -6223,10 +6917,10 @@
       <c r="W3" s="29">
         <v>0.78</v>
       </c>
-      <c r="X3" s="57">
+      <c r="X3" s="44">
         <v>6.7</v>
       </c>
-      <c r="Y3" s="57">
+      <c r="Y3" s="44">
         <v>1.8</v>
       </c>
       <c r="Z3" s="29">
@@ -6236,78 +6930,559 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>452</v>
+        <v>436</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>495</v>
       </c>
       <c r="D4" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="E4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G4" t="s">
-        <v>454</v>
+        <v>229</v>
       </c>
       <c r="H4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I4" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="J4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K4" s="5">
-        <v>20496</v>
+        <v>12917</v>
       </c>
       <c r="L4" s="5">
-        <v>41974</v>
-      </c>
-      <c r="M4">
-        <v>0.92</v>
+        <v>15000</v>
+      </c>
+      <c r="M4" s="29">
+        <v>0.9</v>
       </c>
       <c r="N4">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>5</v>
       </c>
       <c r="P4" s="29">
+        <v>1.51</v>
+      </c>
+      <c r="T4" s="29">
+        <v>1.57</v>
+      </c>
+      <c r="U4" s="29">
+        <v>1.04</v>
+      </c>
+      <c r="V4" s="29">
+        <v>2.11</v>
+      </c>
+      <c r="W4" s="29">
+        <v>1.49</v>
+      </c>
+      <c r="X4" s="44">
+        <v>6.2</v>
+      </c>
+      <c r="Y4" s="44">
+        <v>5.7</v>
+      </c>
+      <c r="Z4" s="29">
+        <v>1.78</v>
+      </c>
+      <c r="AA4" s="29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" t="s">
+        <v>445</v>
+      </c>
+      <c r="I5" t="s">
+        <v>446</v>
+      </c>
+      <c r="J5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="5">
+        <v>11230</v>
+      </c>
+      <c r="L5" s="5">
+        <v>14730</v>
+      </c>
+      <c r="M5" s="29">
+        <v>2.42</v>
+      </c>
+      <c r="N5">
+        <v>52</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5" s="29">
+        <v>7.43</v>
+      </c>
+      <c r="T5" s="29">
+        <v>1.44</v>
+      </c>
+      <c r="U5" s="29">
+        <v>0.19</v>
+      </c>
+      <c r="V5" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="W5" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="X5" s="44">
+        <v>6.9</v>
+      </c>
+      <c r="Y5" s="44">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="29">
+        <v>1.61</v>
+      </c>
+      <c r="AA5" s="29">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E6" t="s">
+        <v>492</v>
+      </c>
+      <c r="F6" t="s">
+        <v>493</v>
+      </c>
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
+        <v>445</v>
+      </c>
+      <c r="I6" t="s">
+        <v>540</v>
+      </c>
+      <c r="J6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" s="5">
+        <v>12691</v>
+      </c>
+      <c r="L6" s="5">
+        <v>14733</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1.61</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" s="29">
+        <v>3.75</v>
+      </c>
+      <c r="T6" s="29">
+        <v>1.69</v>
+      </c>
+      <c r="U6" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="V6" s="29">
+        <v>1.53</v>
+      </c>
+      <c r="W6" s="29">
+        <v>2.14</v>
+      </c>
+      <c r="X6" s="44">
+        <v>5.6</v>
+      </c>
+      <c r="Y6" s="44">
+        <v>6.3</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>1.96</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="D7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I7" t="s">
+        <v>497</v>
+      </c>
+      <c r="J7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" s="5">
+        <v>18912</v>
+      </c>
+      <c r="L7" s="5">
+        <v>13330</v>
+      </c>
+      <c r="M7" s="29">
+        <v>1.24</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="29">
+        <v>2.4</v>
+      </c>
+      <c r="T7" s="29">
+        <v>1.87</v>
+      </c>
+      <c r="U7" s="29">
+        <v>0.78</v>
+      </c>
+      <c r="V7" s="29">
+        <v>0.67</v>
+      </c>
+      <c r="W7" s="29">
+        <v>1.48</v>
+      </c>
+      <c r="X7" s="44">
+        <v>4.7</v>
+      </c>
+      <c r="Y7" s="44">
+        <v>5.6</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>1.59</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>1.74</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F8" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" t="s">
+        <v>445</v>
+      </c>
+      <c r="I8" t="s">
+        <v>494</v>
+      </c>
+      <c r="J8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="5">
+        <v>20496</v>
+      </c>
+      <c r="L8" s="5">
+        <v>41974</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="N8">
+        <v>31</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8" s="29">
         <v>2.02</v>
       </c>
-      <c r="T4">
+      <c r="T8">
         <v>1.69</v>
       </c>
-      <c r="U4">
+      <c r="U8">
         <v>0.83</v>
       </c>
-      <c r="V4">
+      <c r="V8">
         <v>1.58</v>
       </c>
-      <c r="W4">
+      <c r="W8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="X4" s="57">
+      <c r="X8" s="44">
         <v>5.3</v>
       </c>
-      <c r="Y4" s="57">
+      <c r="Y8" s="44">
         <v>6</v>
       </c>
-      <c r="Z4">
+      <c r="Z8">
         <v>1.88</v>
       </c>
-      <c r="AA4">
+      <c r="AA8">
         <v>1.26</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F9" t="s">
+        <v>444</v>
+      </c>
+      <c r="G9" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" t="s">
+        <v>445</v>
+      </c>
+      <c r="I9" t="s">
+        <v>453</v>
+      </c>
+      <c r="J9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="5">
+        <v>9761</v>
+      </c>
+      <c r="L9" s="5">
+        <v>21478</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1.59</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" s="29">
+        <v>7.22</v>
+      </c>
+      <c r="R9" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="S9" s="29">
+        <v>1.44</v>
+      </c>
+      <c r="T9">
+        <v>0.97</v>
+      </c>
+      <c r="U9">
+        <v>0.67</v>
+      </c>
+      <c r="V9">
+        <v>4.29</v>
+      </c>
+      <c r="W9">
+        <v>1.67</v>
+      </c>
+      <c r="X9" s="44">
+        <v>7.2</v>
+      </c>
+      <c r="Y9" s="44">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>1.88</v>
+      </c>
+      <c r="AA9">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>488</v>
+      </c>
+      <c r="E10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" t="s">
+        <v>445</v>
+      </c>
+      <c r="I10" t="s">
+        <v>490</v>
+      </c>
+      <c r="J10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K10" s="5">
+        <v>14620</v>
+      </c>
+      <c r="L10" s="5">
+        <v>12327</v>
+      </c>
+      <c r="M10" s="29">
+        <v>2.21</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="29">
+        <v>1.6</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="S10" s="29">
+        <v>0.84</v>
+      </c>
+      <c r="T10">
+        <v>0.77</v>
+      </c>
+      <c r="U10">
+        <v>0.92</v>
+      </c>
+      <c r="V10">
+        <v>5.25</v>
+      </c>
+      <c r="W10">
+        <v>10.66</v>
+      </c>
+      <c r="X10" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="Y10" s="44">
+        <v>10.1</v>
+      </c>
+      <c r="Z10">
+        <v>3.84</v>
+      </c>
+      <c r="AA10">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>501</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6316,7 +7491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8426450-9649-4589-8A5F-C2871945E9AF}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -6331,53 +7506,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="34" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="68"/>
+      <c r="B4" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="E4" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>426</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B5" s="35">
         <v>1.1000000000000001</v>
@@ -6397,7 +7572,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B6" s="35">
         <v>1</v>
@@ -6417,7 +7592,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B7" s="35">
         <v>0.9</v>
@@ -6437,12 +7612,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -6700,10 +7875,10 @@
       <c r="C2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -7101,7 +8276,7 @@
         <v>40335</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F12" s="5">
         <v>62642</v>
@@ -7127,7 +8302,7 @@
         <v>80000</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F13" s="5">
         <v>45000</v>
@@ -7153,7 +8328,7 @@
         <v>106000</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F14" s="5">
         <v>77500</v>
@@ -7179,7 +8354,7 @@
         <v>161000</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F15" s="5">
         <v>57352</v>
@@ -7205,7 +8380,7 @@
         <v>75000</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F16" s="5">
         <v>88289</v>
@@ -7225,7 +8400,7 @@
         <v>1863</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" s="5">
         <v>56359</v>
@@ -7257,7 +8432,7 @@
         <v>107907</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F18" s="5">
         <v>63797</v>
@@ -7277,7 +8452,7 @@
         <v>1866</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="5">
         <v>220000</v>
@@ -7303,7 +8478,7 @@
         <v>1870</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D20" s="5">
         <v>190000</v>
@@ -7329,7 +8504,7 @@
         <v>1914</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D21" s="5">
         <v>1200000</v>
@@ -7355,7 +8530,7 @@
         <v>1914</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22" s="5">
         <v>187000</v>
@@ -7407,7 +8582,7 @@
         <v>1914</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D24" s="5">
         <v>288600</v>
@@ -7439,7 +8614,7 @@
         <v>500000</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F25" s="5">
         <v>190000</v>
@@ -7459,7 +8634,7 @@
         <v>1915</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D26" s="5">
         <v>175000</v>
@@ -7491,7 +8666,7 @@
         <v>276000</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F27" s="5">
         <v>120000</v>
@@ -7517,7 +8692,7 @@
         <v>1000000</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F28" s="5">
         <v>480000</v>
@@ -7563,7 +8738,7 @@
         <v>1940</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30" s="5">
         <v>2500000</v>
@@ -7589,7 +8764,7 @@
         <v>1941</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D31" s="5">
         <v>20000</v>
@@ -7615,7 +8790,7 @@
         <v>1941</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D32" s="5">
         <v>132000</v>
@@ -7641,7 +8816,7 @@
         <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D33" s="5">
         <v>60000</v>
@@ -7667,13 +8842,13 @@
         <v>1942</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" s="5">
         <v>177000</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F34" s="5">
         <v>93000</v>
@@ -7693,7 +8868,7 @@
         <v>1942</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D35" s="5">
         <v>1000000</v>
@@ -7719,7 +8894,7 @@
         <v>1943</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D36" s="5">
         <v>62000</v>
@@ -7777,7 +8952,7 @@
         <v>14620</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F38" s="5">
         <v>12327</v>
@@ -7803,7 +8978,7 @@
         <v>60794</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F39" s="5">
         <v>39580</v>
@@ -7823,7 +8998,7 @@
         <v>1944</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D40" s="5">
         <v>10000</v>
@@ -7855,7 +9030,7 @@
         <v>68000</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F41" s="5">
         <v>22000</v>
@@ -7875,13 +9050,13 @@
         <v>1967</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D42" s="5">
         <v>54993</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F42" s="5">
         <v>100000</v>
@@ -7901,13 +9076,13 @@
         <v>1967</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D43" s="5">
         <v>45650</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F43" s="5">
         <v>43300</v>
@@ -7927,13 +9102,13 @@
         <v>1967</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D44" s="5">
         <v>40450</v>
       </c>
       <c r="E44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F44" s="5">
         <v>60000</v>
@@ -7947,32 +9122,32 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -8126,11 +9301,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -8172,23 +9347,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531EB65B-DDF4-41F8-BC99-BDCAB28BD019}">
-  <dimension ref="A1:AF340"/>
+  <dimension ref="A1:AF348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="16" customWidth="1"/>
     <col min="7" max="7" width="33.85546875" style="8" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" style="16" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -8197,78 +9375,78 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="G2" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="H2" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>373</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="K2" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="L2" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+    </row>
+    <row r="3" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-    </row>
-    <row r="3" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="M3" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="P3" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B4" s="16">
         <v>60</v>
@@ -8280,7 +9458,7 @@
         <v>0.4</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F4" s="16">
         <v>1.03</v>
@@ -8331,7 +9509,7 @@
         <v>0.8</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" s="16">
         <v>2.2200000000000002</v>
@@ -8370,7 +9548,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="16">
         <v>300</v>
@@ -8382,7 +9560,7 @@
         <v>0.8</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F6" s="16">
         <v>2.41</v>
@@ -8421,7 +9599,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B7" s="16">
         <v>4000</v>
@@ -8433,7 +9611,7 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="16">
         <v>2.2200000000000002</v>
@@ -8471,6 +9649,9 @@
       <c r="AF7" s="16"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>522</v>
+      </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -8479,11 +9660,21 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="L8" s="76">
+        <v>6926</v>
+      </c>
+      <c r="M8" s="77" t="s">
+        <v>523</v>
+      </c>
+      <c r="N8" s="77" t="s">
+        <v>524</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="P8" s="76">
+        <v>34636</v>
+      </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
@@ -8532,10 +9723,13 @@
       <c r="AE9" s="16"/>
       <c r="AF9" s="16"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+    <row r="10" spans="1:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="59" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="16"/>
       <c r="G10" s="16"/>
       <c r="I10" s="16"/>
@@ -8563,8 +9757,13 @@
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>514</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>510</v>
+      </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -8594,39 +9793,51 @@
       <c r="AE11" s="16"/>
       <c r="AF11" s="16"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="53">
+        <v>60</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+    </row>
+    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" s="53">
+        <v>1</v>
+      </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -8656,9 +9867,16 @@
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B14" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>513</v>
+      </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="G14" s="16"/>
@@ -8688,8 +9906,12 @@
       <c r="AF14" s="16"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B15" s="53">
+        <v>1.03</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="G15" s="16"/>
@@ -8719,7 +9941,12 @@
       <c r="AF15" s="16"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
+      <c r="A16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="53">
+        <v>0.95</v>
+      </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -8749,8 +9976,13 @@
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="53">
+        <v>1</v>
+      </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -8780,8 +10012,14 @@
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="16">
+        <f>B12*B13*B14*B15*B16*B17</f>
+        <v>23.483999999999998</v>
+      </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -8811,7 +10049,7 @@
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -8842,7 +10080,7 @@
       <c r="AE19" s="16"/>
       <c r="AF19" s="16"/>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -8873,10 +10111,13 @@
       <c r="AE20" s="16"/>
       <c r="AF20" s="16"/>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+    <row r="21" spans="1:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="16"/>
       <c r="G21" s="16"/>
       <c r="I21" s="16"/>
@@ -8904,8 +10145,10 @@
       <c r="AE21" s="16"/>
       <c r="AF21" s="16"/>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>526</v>
+      </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -8935,10 +10178,15 @@
       <c r="AE22" s="16"/>
       <c r="AF22" s="16"/>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
+        <v>516</v>
+      </c>
+      <c r="B23" s="82">
+        <v>6926</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="16"/>
       <c r="G23" s="16"/>
       <c r="I23" s="16"/>
@@ -8966,41 +10214,54 @@
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+    </row>
+    <row r="25" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="81" t="s">
+        <v>534</v>
+      </c>
+      <c r="B25" s="83">
+        <v>1.5</v>
+      </c>
+      <c r="C25" s="84">
+        <f>B25^(1/2)</f>
+        <v>1.2247448713915889</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="16"/>
       <c r="G25" s="16"/>
       <c r="I25" s="16"/>
@@ -9028,41 +10289,54 @@
       <c r="AE25" s="16"/>
       <c r="AF25" s="16"/>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+    </row>
+    <row r="27" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>533</v>
+      </c>
+      <c r="B27" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="84">
+        <f>B27^(1/2)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="16"/>
       <c r="G27" s="16"/>
       <c r="I27" s="16"/>
@@ -9090,41 +10364,55 @@
       <c r="AE27" s="16"/>
       <c r="AF27" s="16"/>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C29" s="53">
+        <v>3000</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>532</v>
+      </c>
       <c r="E29" s="16"/>
       <c r="G29" s="16"/>
       <c r="I29" s="16"/>
@@ -9152,131 +10440,162 @@
       <c r="AE29" s="16"/>
       <c r="AF29" s="16"/>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-    </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="70"/>
+      <c r="B30" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C30" s="78">
+        <v>2.25</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="70"/>
+      <c r="B31" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="C31" s="53">
+        <v>18</v>
+      </c>
+      <c r="D31" s="84">
+        <f>C31^(1/2)</f>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="70"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="85">
+        <f>C29*C30*D31</f>
+        <v>28637.824638055172</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
+        <v>518</v>
+      </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -9307,38 +10626,46 @@
       <c r="AE34" s="16"/>
       <c r="AF34" s="16"/>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="53"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" s="74" t="s">
+        <v>519</v>
+      </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -9369,38 +10696,46 @@
       <c r="AE36" s="16"/>
       <c r="AF36" s="16"/>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="74" t="s">
+        <v>520</v>
+      </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -9431,38 +10766,46 @@
       <c r="AE38" s="16"/>
       <c r="AF38" s="16"/>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="74" t="s">
+        <v>521</v>
+      </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -9493,7 +10836,7 @@
       <c r="AE40" s="16"/>
       <c r="AF40" s="16"/>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -9524,8 +10867,14 @@
       <c r="AE41" s="16"/>
       <c r="AF41" s="16"/>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="76">
+        <f>B23*C25*C27+D32</f>
+        <v>34635.916584666193</v>
+      </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -9555,7 +10904,7 @@
       <c r="AE42" s="16"/>
       <c r="AF42" s="16"/>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -9586,7 +10935,7 @@
       <c r="AE43" s="16"/>
       <c r="AF43" s="16"/>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -9617,7 +10966,7 @@
       <c r="AE44" s="16"/>
       <c r="AF44" s="16"/>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -9648,7 +10997,7 @@
       <c r="AE45" s="16"/>
       <c r="AF45" s="16"/>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -9679,7 +11028,7 @@
       <c r="AE46" s="16"/>
       <c r="AF46" s="16"/>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -9710,7 +11059,7 @@
       <c r="AE47" s="16"/>
       <c r="AF47" s="16"/>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -18793,8 +20142,258 @@
       <c r="AE340" s="16"/>
       <c r="AF340" s="16"/>
     </row>
+    <row r="341" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B341" s="16"/>
+      <c r="C341" s="16"/>
+      <c r="D341" s="16"/>
+      <c r="E341" s="16"/>
+      <c r="G341" s="16"/>
+      <c r="I341" s="16"/>
+      <c r="J341" s="16"/>
+      <c r="K341" s="16"/>
+      <c r="L341" s="16"/>
+      <c r="M341" s="16"/>
+      <c r="N341" s="16"/>
+      <c r="O341" s="16"/>
+      <c r="P341" s="16"/>
+      <c r="Q341" s="16"/>
+      <c r="R341" s="16"/>
+      <c r="S341" s="16"/>
+      <c r="T341" s="16"/>
+      <c r="U341" s="16"/>
+      <c r="V341" s="16"/>
+      <c r="W341" s="16"/>
+      <c r="X341" s="16"/>
+      <c r="Y341" s="16"/>
+      <c r="Z341" s="16"/>
+      <c r="AA341" s="16"/>
+      <c r="AB341" s="16"/>
+      <c r="AC341" s="16"/>
+      <c r="AD341" s="16"/>
+      <c r="AE341" s="16"/>
+      <c r="AF341" s="16"/>
+    </row>
+    <row r="342" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B342" s="16"/>
+      <c r="C342" s="16"/>
+      <c r="D342" s="16"/>
+      <c r="E342" s="16"/>
+      <c r="G342" s="16"/>
+      <c r="I342" s="16"/>
+      <c r="J342" s="16"/>
+      <c r="K342" s="16"/>
+      <c r="L342" s="16"/>
+      <c r="M342" s="16"/>
+      <c r="N342" s="16"/>
+      <c r="O342" s="16"/>
+      <c r="P342" s="16"/>
+      <c r="Q342" s="16"/>
+      <c r="R342" s="16"/>
+      <c r="S342" s="16"/>
+      <c r="T342" s="16"/>
+      <c r="U342" s="16"/>
+      <c r="V342" s="16"/>
+      <c r="W342" s="16"/>
+      <c r="X342" s="16"/>
+      <c r="Y342" s="16"/>
+      <c r="Z342" s="16"/>
+      <c r="AA342" s="16"/>
+      <c r="AB342" s="16"/>
+      <c r="AC342" s="16"/>
+      <c r="AD342" s="16"/>
+      <c r="AE342" s="16"/>
+      <c r="AF342" s="16"/>
+    </row>
+    <row r="343" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B343" s="16"/>
+      <c r="C343" s="16"/>
+      <c r="D343" s="16"/>
+      <c r="E343" s="16"/>
+      <c r="G343" s="16"/>
+      <c r="I343" s="16"/>
+      <c r="J343" s="16"/>
+      <c r="K343" s="16"/>
+      <c r="L343" s="16"/>
+      <c r="M343" s="16"/>
+      <c r="N343" s="16"/>
+      <c r="O343" s="16"/>
+      <c r="P343" s="16"/>
+      <c r="Q343" s="16"/>
+      <c r="R343" s="16"/>
+      <c r="S343" s="16"/>
+      <c r="T343" s="16"/>
+      <c r="U343" s="16"/>
+      <c r="V343" s="16"/>
+      <c r="W343" s="16"/>
+      <c r="X343" s="16"/>
+      <c r="Y343" s="16"/>
+      <c r="Z343" s="16"/>
+      <c r="AA343" s="16"/>
+      <c r="AB343" s="16"/>
+      <c r="AC343" s="16"/>
+      <c r="AD343" s="16"/>
+      <c r="AE343" s="16"/>
+      <c r="AF343" s="16"/>
+    </row>
+    <row r="344" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B344" s="16"/>
+      <c r="C344" s="16"/>
+      <c r="D344" s="16"/>
+      <c r="E344" s="16"/>
+      <c r="G344" s="16"/>
+      <c r="I344" s="16"/>
+      <c r="J344" s="16"/>
+      <c r="K344" s="16"/>
+      <c r="L344" s="16"/>
+      <c r="M344" s="16"/>
+      <c r="N344" s="16"/>
+      <c r="O344" s="16"/>
+      <c r="P344" s="16"/>
+      <c r="Q344" s="16"/>
+      <c r="R344" s="16"/>
+      <c r="S344" s="16"/>
+      <c r="T344" s="16"/>
+      <c r="U344" s="16"/>
+      <c r="V344" s="16"/>
+      <c r="W344" s="16"/>
+      <c r="X344" s="16"/>
+      <c r="Y344" s="16"/>
+      <c r="Z344" s="16"/>
+      <c r="AA344" s="16"/>
+      <c r="AB344" s="16"/>
+      <c r="AC344" s="16"/>
+      <c r="AD344" s="16"/>
+      <c r="AE344" s="16"/>
+      <c r="AF344" s="16"/>
+    </row>
+    <row r="345" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B345" s="16"/>
+      <c r="C345" s="16"/>
+      <c r="D345" s="16"/>
+      <c r="E345" s="16"/>
+      <c r="G345" s="16"/>
+      <c r="I345" s="16"/>
+      <c r="J345" s="16"/>
+      <c r="K345" s="16"/>
+      <c r="L345" s="16"/>
+      <c r="M345" s="16"/>
+      <c r="N345" s="16"/>
+      <c r="O345" s="16"/>
+      <c r="P345" s="16"/>
+      <c r="Q345" s="16"/>
+      <c r="R345" s="16"/>
+      <c r="S345" s="16"/>
+      <c r="T345" s="16"/>
+      <c r="U345" s="16"/>
+      <c r="V345" s="16"/>
+      <c r="W345" s="16"/>
+      <c r="X345" s="16"/>
+      <c r="Y345" s="16"/>
+      <c r="Z345" s="16"/>
+      <c r="AA345" s="16"/>
+      <c r="AB345" s="16"/>
+      <c r="AC345" s="16"/>
+      <c r="AD345" s="16"/>
+      <c r="AE345" s="16"/>
+      <c r="AF345" s="16"/>
+    </row>
+    <row r="346" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B346" s="16"/>
+      <c r="C346" s="16"/>
+      <c r="D346" s="16"/>
+      <c r="E346" s="16"/>
+      <c r="G346" s="16"/>
+      <c r="I346" s="16"/>
+      <c r="J346" s="16"/>
+      <c r="K346" s="16"/>
+      <c r="L346" s="16"/>
+      <c r="M346" s="16"/>
+      <c r="N346" s="16"/>
+      <c r="O346" s="16"/>
+      <c r="P346" s="16"/>
+      <c r="Q346" s="16"/>
+      <c r="R346" s="16"/>
+      <c r="S346" s="16"/>
+      <c r="T346" s="16"/>
+      <c r="U346" s="16"/>
+      <c r="V346" s="16"/>
+      <c r="W346" s="16"/>
+      <c r="X346" s="16"/>
+      <c r="Y346" s="16"/>
+      <c r="Z346" s="16"/>
+      <c r="AA346" s="16"/>
+      <c r="AB346" s="16"/>
+      <c r="AC346" s="16"/>
+      <c r="AD346" s="16"/>
+      <c r="AE346" s="16"/>
+      <c r="AF346" s="16"/>
+    </row>
+    <row r="347" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B347" s="16"/>
+      <c r="C347" s="16"/>
+      <c r="D347" s="16"/>
+      <c r="E347" s="16"/>
+      <c r="G347" s="16"/>
+      <c r="I347" s="16"/>
+      <c r="J347" s="16"/>
+      <c r="K347" s="16"/>
+      <c r="L347" s="16"/>
+      <c r="M347" s="16"/>
+      <c r="N347" s="16"/>
+      <c r="O347" s="16"/>
+      <c r="P347" s="16"/>
+      <c r="Q347" s="16"/>
+      <c r="R347" s="16"/>
+      <c r="S347" s="16"/>
+      <c r="T347" s="16"/>
+      <c r="U347" s="16"/>
+      <c r="V347" s="16"/>
+      <c r="W347" s="16"/>
+      <c r="X347" s="16"/>
+      <c r="Y347" s="16"/>
+      <c r="Z347" s="16"/>
+      <c r="AA347" s="16"/>
+      <c r="AB347" s="16"/>
+      <c r="AC347" s="16"/>
+      <c r="AD347" s="16"/>
+      <c r="AE347" s="16"/>
+      <c r="AF347" s="16"/>
+    </row>
+    <row r="348" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B348" s="16"/>
+      <c r="C348" s="16"/>
+      <c r="D348" s="16"/>
+      <c r="E348" s="16"/>
+      <c r="G348" s="16"/>
+      <c r="I348" s="16"/>
+      <c r="J348" s="16"/>
+      <c r="K348" s="16"/>
+      <c r="L348" s="16"/>
+      <c r="M348" s="16"/>
+      <c r="N348" s="16"/>
+      <c r="O348" s="16"/>
+      <c r="P348" s="16"/>
+      <c r="Q348" s="16"/>
+      <c r="R348" s="16"/>
+      <c r="S348" s="16"/>
+      <c r="T348" s="16"/>
+      <c r="U348" s="16"/>
+      <c r="V348" s="16"/>
+      <c r="W348" s="16"/>
+      <c r="X348" s="16"/>
+      <c r="Y348" s="16"/>
+      <c r="Z348" s="16"/>
+      <c r="AA348" s="16"/>
+      <c r="AB348" s="16"/>
+      <c r="AC348" s="16"/>
+      <c r="AD348" s="16"/>
+      <c r="AE348" s="16"/>
+      <c r="AF348" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -18809,5 +20408,6 @@
     <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NumsWars.xlsx
+++ b/NumsWars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F76CA1-6ECB-4D0D-AB01-7638DA075403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B6F858-C454-4CB7-A4F4-4DACBC25F148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="16" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="18" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1-2" sheetId="3" r:id="rId1"/>
@@ -30,8 +30,10 @@
     <sheet name="Figure 4-3" sheetId="13" r:id="rId15"/>
     <sheet name="Formulas" sheetId="14" r:id="rId16"/>
     <sheet name="Figure 6-1" sheetId="20" r:id="rId17"/>
-    <sheet name="AppenB QJM DB" sheetId="17" r:id="rId18"/>
-    <sheet name="Tables" sheetId="15" r:id="rId19"/>
+    <sheet name="Figure 6-5" sheetId="21" r:id="rId18"/>
+    <sheet name="Figure 6-6" sheetId="22" r:id="rId19"/>
+    <sheet name="AppenB QJM DB" sheetId="17" r:id="rId20"/>
+    <sheet name="Tables" sheetId="15" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="591">
   <si>
     <t>CASUALTY TRENDS 17TH TO 19TH CENTURIES</t>
   </si>
@@ -1845,7 +1847,124 @@
 Outcome</t>
   </si>
   <si>
-    <t xml:space="preserve">Value of Pf/Pe is so changed by the elimination of CAS that, in the light of the known outcome of te engagements, the results would have been certain or likely to change. CAS had possibly been responsible for the Allied success in Eng 6. </t>
+    <t xml:space="preserve">CAS: Value of Pf/Pe is so changed by the elimination of CAS that, in the light of the known outcome of te engagements, the results would have been certain or likely to change. CAS had possibly been responsible for the Allied success in Eng 6. </t>
+  </si>
+  <si>
+    <t>14-Day Average Interdiction Effort</t>
+  </si>
+  <si>
+    <t>OLI Value of Interdiction Effect</t>
+  </si>
+  <si>
+    <t>Effect of Eliminating Interdiction</t>
+  </si>
+  <si>
+    <t>Modified German OLI</t>
+  </si>
+  <si>
+    <t>Modified Pf/Pe</t>
+  </si>
+  <si>
+    <t>Changed Outcome</t>
+  </si>
+  <si>
+    <t>Interdiction Analysis</t>
+  </si>
+  <si>
+    <t>Log degradation factor</t>
+  </si>
+  <si>
+    <t>Overall Airpower Analysis</t>
+  </si>
+  <si>
+    <t>Overall Air Component of Allied OLI</t>
+  </si>
+  <si>
+    <t>Effect of Eliminating All Air Power</t>
+  </si>
+  <si>
+    <t>Modified Allied OLI</t>
+  </si>
+  <si>
+    <t>Allied Posture</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Scale of Allied Air Interdiction Effort</t>
+  </si>
+  <si>
+    <t>Operation Strangle, by 4 April 1944</t>
+  </si>
+  <si>
+    <t>A/C Type</t>
+  </si>
+  <si>
+    <t>OLI/Sortie</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>14 day average OLI XII AF Interdiction</t>
+  </si>
+  <si>
+    <t>Heavy Bomber</t>
+  </si>
+  <si>
+    <t>Sortie</t>
+  </si>
+  <si>
+    <t>OLI</t>
+  </si>
+  <si>
+    <t>Med. Bomber</t>
+  </si>
+  <si>
+    <t>Light Bomber</t>
+  </si>
+  <si>
+    <t>P-47</t>
+  </si>
+  <si>
+    <t>A-36/P-40</t>
+  </si>
+  <si>
+    <t>XII AF Daily OLI Total</t>
+  </si>
+  <si>
+    <t>XII AF 14-Day Cum Total</t>
+  </si>
+  <si>
+    <t>14-Day Average Daily Total</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>14-Day Cum. XII AF Only</t>
+  </si>
+  <si>
+    <t>14-Day Av Daily Total MAF</t>
+  </si>
+  <si>
+    <t>Air Interdiction Effort and Calculated Logistical Effects</t>
+  </si>
+  <si>
+    <t>Anzio Campaign, January-March 1944</t>
+  </si>
+  <si>
+    <t>Critical Tonnage Interdicted</t>
+  </si>
+  <si>
+    <t>Logistics Factor (b)</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +2037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1982,12 +2101,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,7 +2204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2214,45 +2327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2300,21 +2374,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2322,6 +2420,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3019,31 +3151,31 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="53" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="80" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="73" t="s">
         <v>196</v>
       </c>
       <c r="D2" s="54" t="s">
@@ -3069,31 +3201,31 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="75">
         <v>1</v>
       </c>
-      <c r="D3" s="87">
+      <c r="D3" s="74">
         <v>5</v>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="74">
         <v>10</v>
       </c>
-      <c r="F3" s="87">
+      <c r="F3" s="74">
         <v>20</v>
       </c>
-      <c r="G3" s="87">
+      <c r="G3" s="74">
         <v>25</v>
       </c>
-      <c r="H3" s="87">
+      <c r="H3" s="74">
         <v>250</v>
       </c>
-      <c r="I3" s="87">
+      <c r="I3" s="74">
         <v>3000</v>
       </c>
-      <c r="J3" s="87">
+      <c r="J3" s="74">
         <v>4000</v>
       </c>
     </row>
@@ -3161,7 +3293,7 @@
       <c r="A7" t="s">
         <v>526</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="63">
         <v>34636</v>
       </c>
       <c r="H7" s="53">
@@ -3296,12 +3428,12 @@
       <c r="E3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="78" t="s">
         <v>356</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -4749,17 +4881,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
       <c r="G2" t="s">
         <v>476</v>
       </c>
@@ -5899,10 +6031,10 @@
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="C57" s="61"/>
+      <c r="C57" s="84"/>
       <c r="D57" s="32" t="s">
         <v>288</v>
       </c>
@@ -6080,12 +6212,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="18"/>
@@ -6178,12 +6310,12 @@
       <c r="C18" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
@@ -6212,12 +6344,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
@@ -6234,12 +6366,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
@@ -6256,12 +6388,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
@@ -6278,12 +6410,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
@@ -6509,24 +6641,50 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A12A17-5E28-4749-94F5-7EA388CACD60}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="6"/>
+    <col min="1" max="5" width="9.140625" style="76"/>
+    <col min="6" max="12" width="9.140625" style="55"/>
+    <col min="13" max="14" width="11.85546875" style="55" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="55" customWidth="1"/>
+    <col min="16" max="23" width="9.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+    </row>
+    <row r="2" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
         <v>536</v>
       </c>
       <c r="B2" s="89" t="s">
@@ -6537,120 +6695,328 @@
         <v>542</v>
       </c>
       <c r="E2" s="89"/>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="90" t="s">
         <v>545</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90" t="s">
+        <v>558</v>
+      </c>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+    </row>
+    <row r="3" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="91" t="s">
         <v>546</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="92" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="98" t="s">
         <v>547</v>
       </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-    </row>
-    <row r="4" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="89" t="s">
+        <v>552</v>
+      </c>
+      <c r="M3" s="89" t="s">
+        <v>559</v>
+      </c>
+      <c r="N3" s="89" t="s">
+        <v>553</v>
+      </c>
+      <c r="O3" s="99" t="s">
+        <v>554</v>
+      </c>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="81" t="s">
+        <v>561</v>
+      </c>
+      <c r="S3" s="98" t="s">
+        <v>562</v>
+      </c>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+    </row>
+    <row r="4" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89" t="s">
         <v>463</v>
       </c>
       <c r="E4" s="89"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="93" t="s">
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="96" t="s">
         <v>548</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>549</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="96" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="6" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="97" t="s">
+        <v>555</v>
+      </c>
+      <c r="P4" s="97" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q4" s="97" t="s">
+        <v>557</v>
+      </c>
+      <c r="R4" s="81"/>
+      <c r="S4" s="97" t="s">
+        <v>563</v>
+      </c>
+      <c r="T4" s="97" t="s">
+        <v>555</v>
+      </c>
+      <c r="U4" s="97" t="s">
+        <v>556</v>
+      </c>
+      <c r="V4" s="97" t="s">
+        <v>557</v>
+      </c>
+      <c r="W4" s="97" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="88"/>
+      <c r="B5" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="76" t="s">
         <v>537</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="76" t="s">
         <v>543</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="76" t="s">
         <v>544</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="76" t="s">
         <v>537</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="76" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="76">
         <v>6</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="69">
         <v>108296</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="69">
         <v>34405</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="76">
         <v>3.15</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="69">
         <v>15750</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="69">
         <v>2429</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="69">
         <v>92546</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="69">
         <v>31976</v>
       </c>
       <c r="J6" s="41">
         <v>2.89</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="76" t="s">
         <v>408</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="M6" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="N6" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="O6" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="P6" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q6" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="R6" s="69">
+        <v>27572</v>
+      </c>
+      <c r="S6" s="69">
+        <v>86635</v>
+      </c>
+      <c r="T6" s="69">
+        <v>37887</v>
+      </c>
+      <c r="U6" s="55">
+        <v>2.29</v>
+      </c>
+      <c r="V6" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="W6" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="X6" t="s">
         <v>551</v>
       </c>
     </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="76">
+        <v>30</v>
+      </c>
+      <c r="B7" s="69">
+        <v>37849</v>
+      </c>
+      <c r="C7" s="69">
+        <v>24442</v>
+      </c>
+      <c r="D7" s="76">
+        <v>1.55</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="55">
+        <v>0</v>
+      </c>
+      <c r="G7" s="55">
+        <v>961</v>
+      </c>
+      <c r="H7" s="69">
+        <v>37849</v>
+      </c>
+      <c r="I7" s="69">
+        <v>23481</v>
+      </c>
+      <c r="J7" s="55">
+        <v>1.28</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="L7" s="69">
+        <v>3074</v>
+      </c>
+      <c r="M7" s="65">
+        <v>0.8</v>
+      </c>
+      <c r="N7" s="69">
+        <v>5696</v>
+      </c>
+      <c r="O7" s="69">
+        <v>30138</v>
+      </c>
+      <c r="P7" s="55">
+        <v>1.26</v>
+      </c>
+      <c r="Q7" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="R7" s="69">
+        <v>16474</v>
+      </c>
+      <c r="S7" s="69">
+        <v>32460</v>
+      </c>
+      <c r="T7" s="69">
+        <v>34566</v>
+      </c>
+      <c r="U7" s="55">
+        <v>0.94</v>
+      </c>
+      <c r="V7" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="W7" s="55" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="27">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="L3:L5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="H4:I4"/>
@@ -6661,10 +7027,875 @@
     <mergeCell ref="B2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB44D7D-7910-457B-A904-E3B1BB804253}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="12" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78" t="s">
+        <v>576</v>
+      </c>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78" t="s">
+        <v>577</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78" t="s">
+        <v>578</v>
+      </c>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78" t="s">
+        <v>579</v>
+      </c>
+      <c r="L3" s="78"/>
+      <c r="M3" s="81" t="s">
+        <v>580</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>581</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" s="78">
+        <v>460</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78">
+        <v>200</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78">
+        <v>97</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78">
+        <v>61</v>
+      </c>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78">
+        <v>51</v>
+      </c>
+      <c r="L4" s="78"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="101" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" s="55">
+        <v>21</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="55">
+        <v>146</v>
+      </c>
+      <c r="F6" s="63">
+        <v>29200</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="55">
+        <v>11</v>
+      </c>
+      <c r="J6" s="55">
+        <v>671</v>
+      </c>
+      <c r="K6" s="55">
+        <v>15</v>
+      </c>
+      <c r="L6" s="55">
+        <v>765</v>
+      </c>
+      <c r="M6" s="63">
+        <v>30636</v>
+      </c>
+      <c r="N6" s="63">
+        <v>182061</v>
+      </c>
+      <c r="O6" s="63">
+        <v>13004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="101"/>
+      <c r="B7" s="55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="101"/>
+      <c r="B8" s="55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="101"/>
+      <c r="B9" s="55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="101"/>
+      <c r="B10" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="101"/>
+      <c r="B11" s="55">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="101"/>
+      <c r="B12" s="55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="101"/>
+      <c r="B13" s="55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="101"/>
+      <c r="B14" s="55">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="101"/>
+      <c r="B15" s="55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="101"/>
+      <c r="B16" s="55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="101"/>
+      <c r="B18" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB61330-260B-42B9-9AD7-CCF0888752B3}">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="12" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78" t="s">
+        <v>576</v>
+      </c>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78" t="s">
+        <v>577</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78" t="s">
+        <v>578</v>
+      </c>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78" t="s">
+        <v>579</v>
+      </c>
+      <c r="L3" s="78"/>
+      <c r="M3" s="81" t="s">
+        <v>580</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>585</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="P3" s="81" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q3" s="81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" s="78">
+        <v>460</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78">
+        <v>200</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78">
+        <v>97</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78">
+        <v>61</v>
+      </c>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78">
+        <v>51</v>
+      </c>
+      <c r="L4" s="78"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="101" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="55">
+        <v>21</v>
+      </c>
+      <c r="C6" s="19">
+        <v>78</v>
+      </c>
+      <c r="D6" s="63">
+        <v>35880</v>
+      </c>
+      <c r="E6" s="55">
+        <v>136</v>
+      </c>
+      <c r="F6" s="63">
+        <v>27200</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" s="55">
+        <v>55</v>
+      </c>
+      <c r="L6" s="55">
+        <v>2805</v>
+      </c>
+      <c r="M6" s="63">
+        <v>65885</v>
+      </c>
+      <c r="N6" s="63">
+        <v>321121</v>
+      </c>
+      <c r="O6" s="63">
+        <v>28672</v>
+      </c>
+      <c r="P6" s="63">
+        <v>364</v>
+      </c>
+      <c r="Q6" s="103">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="101"/>
+      <c r="B7" s="55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="101"/>
+      <c r="B8" s="55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="101"/>
+      <c r="B9" s="55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="101"/>
+      <c r="B10" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="101"/>
+      <c r="B11" s="55">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="101"/>
+      <c r="B12" s="55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="101"/>
+      <c r="B13" s="55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="101"/>
+      <c r="B14" s="55">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="101"/>
+      <c r="B15" s="55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="101"/>
+      <c r="B16" s="55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>584</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="101"/>
+      <c r="B18" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="55">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="55">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>570</v>
+      </c>
+      <c r="B46" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="55">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC1194B-8579-40BC-9904-C1B13E73A304}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1630</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1795</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1812</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1848</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19165018-302E-49ED-84D3-E08C506E1FF7}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
@@ -7491,7 +8722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8426450-9649-4589-8A5F-C2871945E9AF}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -7506,22 +8737,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="92" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="34" t="s">
         <v>423</v>
       </c>
@@ -7533,7 +8764,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="34" t="s">
         <v>420</v>
       </c>
@@ -7626,93 +8857,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A3:A4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC1194B-8579-40BC-9904-C1B13E73A304}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1630</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1795</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1812</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1848</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7875,10 +9019,10 @@
       <c r="C2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="55"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -9301,11 +10445,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -9375,59 +10519,59 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="81" t="s">
         <v>369</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="81" t="s">
         <v>370</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="81" t="s">
         <v>371</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="81" t="s">
         <v>372</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
     </row>
     <row r="3" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="15" t="s">
         <v>159</v>
       </c>
@@ -9660,19 +10804,19 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="76">
+      <c r="L8" s="63">
         <v>6926</v>
       </c>
-      <c r="M8" s="77" t="s">
+      <c r="M8" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="N8" s="77" t="s">
+      <c r="N8" s="64" t="s">
         <v>524</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="63">
         <v>34636</v>
       </c>
       <c r="Q8" s="16"/>
@@ -9724,12 +10868,12 @@
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="80" t="s">
         <v>509</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="16"/>
       <c r="G10" s="16"/>
       <c r="I10" s="16"/>
@@ -9758,7 +10902,7 @@
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="56" t="s">
         <v>514</v>
       </c>
       <c r="B11" s="54" t="s">
@@ -10112,12 +11256,12 @@
       <c r="AF20" s="16"/>
     </row>
     <row r="21" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="80" t="s">
         <v>515</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="16"/>
       <c r="G21" s="16"/>
       <c r="I21" s="16"/>
@@ -10179,10 +11323,10 @@
       <c r="AF22" s="16"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="B23" s="82">
+      <c r="B23" s="69">
         <v>6926</v>
       </c>
       <c r="C23" s="6"/>
@@ -10215,7 +11359,7 @@
       <c r="AF23" s="16"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="59" t="s">
         <v>333</v>
       </c>
       <c r="B24" s="6"/>
@@ -10251,13 +11395,13 @@
       <c r="AF24" s="53"/>
     </row>
     <row r="25" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="68" t="s">
         <v>534</v>
       </c>
-      <c r="B25" s="83">
+      <c r="B25" s="70">
         <v>1.5</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="71">
         <f>B25^(1/2)</f>
         <v>1.2247448713915889</v>
       </c>
@@ -10290,7 +11434,7 @@
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="59" t="s">
         <v>333</v>
       </c>
       <c r="B26" s="6"/>
@@ -10326,13 +11470,13 @@
       <c r="AF26" s="53"/>
     </row>
     <row r="27" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="B27" s="83">
+      <c r="B27" s="70">
         <v>0.5</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="71">
         <f>B27^(1/2)</f>
         <v>0.70710678118654757</v>
       </c>
@@ -10365,7 +11509,7 @@
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="60" t="s">
         <v>335</v>
       </c>
       <c r="B28" s="53"/>
@@ -10401,7 +11545,7 @@
       <c r="AF28" s="53"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="57" t="s">
         <v>517</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -10441,11 +11585,11 @@
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C30" s="78">
+      <c r="C30" s="65">
         <v>2.25</v>
       </c>
       <c r="D30" s="53"/>
@@ -10479,14 +11623,14 @@
       <c r="AF30" s="53"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="80" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="67" t="s">
         <v>531</v>
       </c>
       <c r="C31" s="53">
         <v>18</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="71">
         <f>C31^(1/2)</f>
         <v>4.2426406871192848</v>
       </c>
@@ -10520,10 +11664,10 @@
       <c r="AF31" s="53"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
-      <c r="D32" s="85">
+      <c r="D32" s="72">
         <f>C29*C30*D31</f>
         <v>28637.824638055172</v>
       </c>
@@ -10593,7 +11737,7 @@
       <c r="AF33" s="53"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="61" t="s">
         <v>518</v>
       </c>
       <c r="B34" s="16"/>
@@ -10627,7 +11771,7 @@
       <c r="AF34" s="16"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="62" t="s">
         <v>333</v>
       </c>
       <c r="B35" s="53"/>
@@ -10663,7 +11807,7 @@
       <c r="AF35" s="53"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="61" t="s">
         <v>519</v>
       </c>
       <c r="B36" s="16"/>
@@ -10697,7 +11841,7 @@
       <c r="AF36" s="16"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="62" t="s">
         <v>333</v>
       </c>
       <c r="B37" s="53"/>
@@ -10733,7 +11877,7 @@
       <c r="AF37" s="53"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="61" t="s">
         <v>520</v>
       </c>
       <c r="B38" s="16"/>
@@ -10767,7 +11911,7 @@
       <c r="AF38" s="16"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="62" t="s">
         <v>333</v>
       </c>
       <c r="B39" s="53"/>
@@ -10803,7 +11947,7 @@
       <c r="AF39" s="53"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="61" t="s">
         <v>521</v>
       </c>
       <c r="B40" s="16"/>
@@ -10871,7 +12015,7 @@
       <c r="A42" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="63">
         <f>B23*C25*C27+D32</f>
         <v>34635.916584666193</v>
       </c>

--- a/NumsWars.xlsx
+++ b/NumsWars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC98504C-85D9-42F6-BE6A-A0D82B3A90B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD2B23-93B1-483C-B28A-448D9BE5C099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="20" activeTab="26" xr2:uid="{44EAAB4F-48A0-4D91-803D-8DF00086BB45}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1-1" sheetId="23" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="Figure 9-3" sheetId="28" r:id="rId24"/>
     <sheet name="AppenB QJM DB" sheetId="17" r:id="rId25"/>
     <sheet name="Tables" sheetId="15" r:id="rId26"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2981,10 +2982,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2995,6 +3011,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3057,24 +3076,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3400,7 +3401,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,28 +3567,28 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="136" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="109" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="53" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="116" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="107" t="s">
         <v>191</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -3616,7 +3617,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="108" t="s">
         <v>189</v>
       </c>
       <c r="C3" s="74">
@@ -3839,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C500358-2F07-4DA4-B0CB-529895A5338D}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,40 +3861,40 @@
       <c r="E3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="119" t="s">
         <v>352</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="110" t="s">
         <v>353</v>
       </c>
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="110" t="s">
         <v>353</v>
       </c>
-      <c r="I4" s="137" t="s">
+      <c r="I4" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="J4" s="137" t="s">
+      <c r="J4" s="110" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="110" t="s">
         <v>355</v>
       </c>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="110" t="s">
         <v>356</v>
       </c>
-      <c r="I5" s="137" t="s">
+      <c r="I5" s="110" t="s">
         <v>355</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="110" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3903,10 +3904,10 @@
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -3918,16 +3919,16 @@
       <c r="E7" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G7" s="138">
+      <c r="G7" s="111">
         <v>126</v>
       </c>
-      <c r="H7" s="138">
+      <c r="H7" s="111">
         <v>126</v>
       </c>
-      <c r="I7" s="138">
+      <c r="I7" s="111">
         <v>126</v>
       </c>
-      <c r="J7" s="138">
+      <c r="J7" s="111">
         <v>126</v>
       </c>
       <c r="K7" s="27"/>
@@ -3952,16 +3953,16 @@
       <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="138">
+      <c r="G8" s="111">
         <v>0.9</v>
       </c>
-      <c r="H8" s="138">
+      <c r="H8" s="111">
         <v>0.7</v>
       </c>
-      <c r="I8" s="138">
+      <c r="I8" s="111">
         <v>0.9</v>
       </c>
-      <c r="J8" s="138">
+      <c r="J8" s="111">
         <v>0.7</v>
       </c>
       <c r="K8" s="27"/>
@@ -3986,16 +3987,16 @@
       <c r="E9" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G9" s="138">
+      <c r="G9" s="111">
         <v>113.4</v>
       </c>
-      <c r="H9" s="138">
+      <c r="H9" s="111">
         <v>88.2</v>
       </c>
-      <c r="I9" s="138">
+      <c r="I9" s="111">
         <v>113.4</v>
       </c>
-      <c r="J9" s="138">
+      <c r="J9" s="111">
         <v>88.2</v>
       </c>
       <c r="K9" s="27"/>
@@ -4016,10 +4017,10 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
@@ -4040,10 +4041,10 @@
         <v>229</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -4066,10 +4067,10 @@
       <c r="E12" s="16">
         <v>1</v>
       </c>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -4092,10 +4093,10 @@
       <c r="E13" s="16">
         <v>2</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -4118,10 +4119,10 @@
       <c r="E14" s="16">
         <v>3</v>
       </c>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -4144,10 +4145,10 @@
       <c r="E15" s="16">
         <v>4</v>
       </c>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -4170,10 +4171,10 @@
       <c r="E16" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -4192,10 +4193,10 @@
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -4218,10 +4219,10 @@
       <c r="E18" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -4244,10 +4245,10 @@
       <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -4270,10 +4271,10 @@
       <c r="E20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -4296,10 +4297,10 @@
       <c r="E21" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
@@ -4318,10 +4319,10 @@
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -4344,10 +4345,10 @@
       <c r="E23" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -4370,10 +4371,10 @@
       <c r="E24" s="16">
         <v>1</v>
       </c>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
@@ -4396,10 +4397,10 @@
       <c r="E25" s="16">
         <v>2</v>
       </c>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
@@ -4422,10 +4423,10 @@
       <c r="E26" s="16">
         <v>3</v>
       </c>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
@@ -4448,10 +4449,10 @@
       <c r="E27" s="16">
         <v>4</v>
       </c>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
@@ -4474,10 +4475,10 @@
       <c r="E28" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
@@ -4503,16 +4504,16 @@
       <c r="E29" s="16">
         <v>11</v>
       </c>
-      <c r="G29" s="138">
+      <c r="G29" s="111">
         <v>113.4</v>
       </c>
-      <c r="H29" s="138">
+      <c r="H29" s="111">
         <v>88.2</v>
       </c>
-      <c r="I29" s="138">
+      <c r="I29" s="111">
         <v>113.4</v>
       </c>
-      <c r="J29" s="138">
+      <c r="J29" s="111">
         <v>88.2</v>
       </c>
       <c r="K29" s="27"/>
@@ -4530,10 +4531,10 @@
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
@@ -4552,10 +4553,10 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
@@ -4574,10 +4575,10 @@
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
@@ -4596,16 +4597,16 @@
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
-      <c r="G33" s="139" t="s">
+      <c r="G33" s="112" t="s">
         <v>358</v>
       </c>
-      <c r="H33" s="139" t="s">
+      <c r="H33" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="I33" s="139" t="s">
+      <c r="I33" s="112" t="s">
         <v>358</v>
       </c>
-      <c r="J33" s="139" t="s">
+      <c r="J33" s="112" t="s">
         <v>347</v>
       </c>
       <c r="K33" s="27"/>
@@ -4630,10 +4631,10 @@
       <c r="E34" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
@@ -4652,10 +4653,10 @@
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="138"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
@@ -4678,16 +4679,16 @@
       <c r="E36" s="16">
         <v>2</v>
       </c>
-      <c r="G36" s="139" t="s">
+      <c r="G36" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="H36" s="139" t="s">
+      <c r="H36" s="112" t="s">
         <v>359</v>
       </c>
-      <c r="I36" s="139" t="s">
+      <c r="I36" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="J36" s="139" t="s">
+      <c r="J36" s="112" t="s">
         <v>359</v>
       </c>
       <c r="K36" s="27"/>
@@ -4712,16 +4713,16 @@
       <c r="E37" s="16">
         <v>1</v>
       </c>
-      <c r="G37" s="139" t="s">
+      <c r="G37" s="112" t="s">
         <v>359</v>
       </c>
-      <c r="H37" s="139" t="s">
+      <c r="H37" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="I37" s="139" t="s">
+      <c r="I37" s="112" t="s">
         <v>359</v>
       </c>
-      <c r="J37" s="139" t="s">
+      <c r="J37" s="112" t="s">
         <v>347</v>
       </c>
       <c r="K37" s="27"/>
@@ -4746,16 +4747,16 @@
       <c r="E38" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="G38" s="138">
+      <c r="G38" s="111">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H38" s="138">
+      <c r="H38" s="111">
         <v>0.9</v>
       </c>
-      <c r="I38" s="138">
+      <c r="I38" s="111">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J38" s="138">
+      <c r="J38" s="111">
         <v>0.9</v>
       </c>
       <c r="K38" s="27"/>
@@ -4776,10 +4777,10 @@
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
@@ -4798,10 +4799,10 @@
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
       <c r="K40" s="27"/>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
@@ -4820,10 +4821,10 @@
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
@@ -4846,16 +4847,16 @@
       <c r="E42" s="16">
         <v>8</v>
       </c>
-      <c r="G42" s="139" t="s">
+      <c r="G42" s="112" t="s">
         <v>362</v>
       </c>
-      <c r="H42" s="139" t="s">
+      <c r="H42" s="112" t="s">
         <v>363</v>
       </c>
-      <c r="I42" s="139" t="s">
+      <c r="I42" s="112" t="s">
         <v>362</v>
       </c>
-      <c r="J42" s="139" t="s">
+      <c r="J42" s="112" t="s">
         <v>363</v>
       </c>
       <c r="K42" s="27"/>
@@ -4876,10 +4877,10 @@
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
       <c r="K43" s="27"/>
       <c r="L43" s="27"/>
       <c r="M43" s="27"/>
@@ -4898,10 +4899,10 @@
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
       <c r="K44" s="27"/>
       <c r="L44" s="27"/>
       <c r="M44" s="27"/>
@@ -4920,10 +4921,10 @@
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="138"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
       <c r="K45" s="27"/>
       <c r="L45" s="27"/>
       <c r="M45" s="27"/>
@@ -4946,16 +4947,16 @@
       <c r="E46" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="G46" s="138">
+      <c r="G46" s="111">
         <v>0.9</v>
       </c>
-      <c r="H46" s="138">
+      <c r="H46" s="111">
         <v>0.7</v>
       </c>
-      <c r="I46" s="138">
+      <c r="I46" s="111">
         <v>0.9</v>
       </c>
-      <c r="J46" s="138">
+      <c r="J46" s="111">
         <v>0.7</v>
       </c>
       <c r="K46" s="27"/>
@@ -4976,10 +4977,10 @@
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="138"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
@@ -5002,16 +5003,16 @@
       <c r="E48" s="16">
         <v>1</v>
       </c>
-      <c r="G48" s="138">
+      <c r="G48" s="111">
         <v>1</v>
       </c>
-      <c r="H48" s="138">
+      <c r="H48" s="111">
         <v>1</v>
       </c>
-      <c r="I48" s="138">
+      <c r="I48" s="111">
         <v>1.5</v>
       </c>
-      <c r="J48" s="138">
+      <c r="J48" s="111">
         <v>1.2</v>
       </c>
       <c r="K48" s="27"/>
@@ -5036,16 +5037,16 @@
       <c r="E49" s="16">
         <v>2</v>
       </c>
-      <c r="G49" s="138">
+      <c r="G49" s="111">
         <v>1</v>
       </c>
-      <c r="H49" s="138">
+      <c r="H49" s="111">
         <v>0.8</v>
       </c>
-      <c r="I49" s="138">
+      <c r="I49" s="111">
         <v>1</v>
       </c>
-      <c r="J49" s="138">
+      <c r="J49" s="111">
         <v>0.8</v>
       </c>
       <c r="K49" s="27"/>
@@ -5070,16 +5071,16 @@
       <c r="E50" s="16">
         <v>3</v>
       </c>
-      <c r="G50" s="138">
+      <c r="G50" s="111">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H50" s="138">
+      <c r="H50" s="111">
         <v>1</v>
       </c>
-      <c r="I50" s="138">
+      <c r="I50" s="111">
         <v>1</v>
       </c>
-      <c r="J50" s="138">
+      <c r="J50" s="111">
         <v>1</v>
       </c>
       <c r="K50" s="27"/>
@@ -5104,16 +5105,16 @@
       <c r="E51" s="16">
         <v>5</v>
       </c>
-      <c r="G51" s="138">
+      <c r="G51" s="111">
         <v>1</v>
       </c>
-      <c r="H51" s="138">
+      <c r="H51" s="111">
         <v>1</v>
       </c>
-      <c r="I51" s="138">
+      <c r="I51" s="111">
         <v>1.5</v>
       </c>
-      <c r="J51" s="138">
+      <c r="J51" s="111">
         <v>1.5</v>
       </c>
       <c r="K51" s="27"/>
@@ -5138,16 +5139,16 @@
       <c r="E52" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G52" s="138">
+      <c r="G52" s="111">
         <v>1</v>
       </c>
-      <c r="H52" s="138">
+      <c r="H52" s="111">
         <v>1</v>
       </c>
-      <c r="I52" s="138">
+      <c r="I52" s="111">
         <v>1</v>
       </c>
-      <c r="J52" s="138">
+      <c r="J52" s="111">
         <v>1</v>
       </c>
       <c r="K52" s="27"/>
@@ -5172,16 +5173,16 @@
       <c r="E53" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G53" s="138">
+      <c r="G53" s="111">
         <v>0.9</v>
       </c>
-      <c r="H53" s="138">
+      <c r="H53" s="111">
         <v>0.9</v>
       </c>
-      <c r="I53" s="138">
+      <c r="I53" s="111">
         <v>0.9</v>
       </c>
-      <c r="J53" s="138">
+      <c r="J53" s="111">
         <v>0.9</v>
       </c>
       <c r="K53" s="27"/>
@@ -5206,16 +5207,16 @@
       <c r="E54" s="16">
         <v>7</v>
       </c>
-      <c r="G54" s="138">
+      <c r="G54" s="111">
         <v>1</v>
       </c>
-      <c r="H54" s="138">
+      <c r="H54" s="111">
         <v>1</v>
       </c>
-      <c r="I54" s="138">
+      <c r="I54" s="111">
         <v>1</v>
       </c>
-      <c r="J54" s="138">
+      <c r="J54" s="111">
         <v>1</v>
       </c>
       <c r="K54" s="27"/>
@@ -5240,16 +5241,16 @@
       <c r="E55" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G55" s="138">
+      <c r="G55" s="111">
         <v>1</v>
       </c>
-      <c r="H55" s="138">
+      <c r="H55" s="111">
         <v>0.9</v>
       </c>
-      <c r="I55" s="138">
+      <c r="I55" s="111">
         <v>1</v>
       </c>
-      <c r="J55" s="138">
+      <c r="J55" s="111">
         <v>0.9</v>
       </c>
       <c r="K55" s="27"/>
@@ -5274,16 +5275,16 @@
       <c r="E56" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="G56" s="138">
+      <c r="G56" s="111">
         <v>111.1</v>
       </c>
-      <c r="H56" s="138">
+      <c r="H56" s="111">
         <v>36</v>
       </c>
-      <c r="I56" s="138">
+      <c r="I56" s="111">
         <v>227.3</v>
       </c>
-      <c r="J56" s="138">
+      <c r="J56" s="111">
         <v>64.8</v>
       </c>
       <c r="K56" s="27"/>
@@ -5321,27 +5322,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="109"/>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="A1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="120" t="s">
         <v>449</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="F2" s="107" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="F2" s="113" t="s">
         <v>471</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="K2" s="107" t="s">
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="K2" s="113" t="s">
         <v>633</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -6596,10 +6597,10 @@
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="113" t="s">
+      <c r="B57" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="C57" s="113"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="32" t="s">
         <v>284</v>
       </c>
@@ -6777,12 +6778,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="116" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="18"/>
@@ -6875,12 +6876,12 @@
       <c r="C18" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="116" t="s">
         <v>423</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
@@ -6909,12 +6910,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="122" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
@@ -6931,12 +6932,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="122" t="s">
         <v>331</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
@@ -6953,12 +6954,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="114" t="s">
+      <c r="A27" s="122" t="s">
         <v>331</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
@@ -6975,12 +6976,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="114" t="s">
+      <c r="A29" s="122" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
@@ -7222,161 +7223,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="125" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
     </row>
     <row r="2" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="132" t="s">
         <v>531</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="127" t="s">
         <v>536</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127" t="s">
         <v>537</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="127"/>
+      <c r="F2" s="126" t="s">
         <v>540</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118" t="s">
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126" t="s">
         <v>552</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118" t="s">
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126" t="s">
         <v>554</v>
       </c>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
     </row>
     <row r="3" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="125" t="s">
+      <c r="A3" s="132"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="133" t="s">
         <v>541</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="120" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="128" t="s">
         <v>542</v>
       </c>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="119" t="s">
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="127" t="s">
         <v>546</v>
       </c>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="127" t="s">
         <v>553</v>
       </c>
-      <c r="N3" s="119" t="s">
+      <c r="N3" s="127" t="s">
         <v>547</v>
       </c>
-      <c r="O3" s="122" t="s">
+      <c r="O3" s="130" t="s">
         <v>548</v>
       </c>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="110" t="s">
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="117" t="s">
         <v>555</v>
       </c>
-      <c r="S3" s="120" t="s">
+      <c r="S3" s="128" t="s">
         <v>556</v>
       </c>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
     </row>
     <row r="4" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119" t="s">
+      <c r="A4" s="132"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127" t="s">
         <v>458</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="123" t="s">
+      <c r="E4" s="127"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="131" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123" t="s">
+      <c r="I4" s="131"/>
+      <c r="J4" s="131" t="s">
         <v>544</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="131" t="s">
         <v>545</v>
       </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="121" t="s">
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="129" t="s">
         <v>549</v>
       </c>
-      <c r="P4" s="121" t="s">
+      <c r="P4" s="129" t="s">
         <v>550</v>
       </c>
-      <c r="Q4" s="121" t="s">
+      <c r="Q4" s="129" t="s">
         <v>551</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="121" t="s">
+      <c r="R4" s="117"/>
+      <c r="S4" s="129" t="s">
         <v>557</v>
       </c>
-      <c r="T4" s="121" t="s">
+      <c r="T4" s="129" t="s">
         <v>549</v>
       </c>
-      <c r="U4" s="121" t="s">
+      <c r="U4" s="129" t="s">
         <v>550</v>
       </c>
-      <c r="V4" s="121" t="s">
+      <c r="V4" s="129" t="s">
         <v>551</v>
       </c>
-      <c r="W4" s="121" t="s">
+      <c r="W4" s="129" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="75" t="s">
         <v>458</v>
       </c>
@@ -7401,20 +7402,20 @@
       <c r="I5" s="75" t="s">
         <v>532</v>
       </c>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
@@ -7980,74 +7981,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="114" t="s">
         <v>560</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="134" t="s">
         <v>561</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>562</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="113" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="113" t="s">
         <v>571</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107" t="s">
+      <c r="H3" s="113"/>
+      <c r="I3" s="113" t="s">
         <v>572</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107" t="s">
+      <c r="J3" s="113"/>
+      <c r="K3" s="113" t="s">
         <v>573</v>
       </c>
-      <c r="L3" s="107"/>
-      <c r="M3" s="110" t="s">
+      <c r="L3" s="113"/>
+      <c r="M3" s="117" t="s">
         <v>574</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="117" t="s">
         <v>575</v>
       </c>
-      <c r="O3" s="110" t="s">
+      <c r="O3" s="117" t="s">
         <v>576</v>
       </c>
     </row>
@@ -8055,29 +8056,29 @@
       <c r="A4" t="s">
         <v>563</v>
       </c>
-      <c r="C4" s="107">
+      <c r="C4" s="113">
         <v>460</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113">
         <v>200</v>
       </c>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107">
+      <c r="F4" s="113"/>
+      <c r="G4" s="113">
         <v>97</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107">
+      <c r="H4" s="113"/>
+      <c r="I4" s="113">
         <v>61</v>
       </c>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107">
+      <c r="J4" s="113"/>
+      <c r="K4" s="113">
         <v>51</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="55" t="s">
@@ -8110,9 +8111,9 @@
       <c r="L5" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
@@ -8281,84 +8282,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="114" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="134" t="s">
         <v>582</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>562</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="113" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="113" t="s">
         <v>571</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107" t="s">
+      <c r="H3" s="113"/>
+      <c r="I3" s="113" t="s">
         <v>572</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107" t="s">
+      <c r="J3" s="113"/>
+      <c r="K3" s="113" t="s">
         <v>573</v>
       </c>
-      <c r="L3" s="107"/>
-      <c r="M3" s="110" t="s">
+      <c r="L3" s="113"/>
+      <c r="M3" s="117" t="s">
         <v>574</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="117" t="s">
         <v>579</v>
       </c>
-      <c r="O3" s="110" t="s">
+      <c r="O3" s="117" t="s">
         <v>580</v>
       </c>
-      <c r="P3" s="110" t="s">
+      <c r="P3" s="117" t="s">
         <v>583</v>
       </c>
-      <c r="Q3" s="110" t="s">
+      <c r="Q3" s="117" t="s">
         <v>584</v>
       </c>
     </row>
@@ -8366,31 +8367,31 @@
       <c r="A4" t="s">
         <v>563</v>
       </c>
-      <c r="C4" s="107">
+      <c r="C4" s="113">
         <v>460</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113">
         <v>200</v>
       </c>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107">
+      <c r="F4" s="113"/>
+      <c r="G4" s="113">
         <v>97</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107">
+      <c r="H4" s="113"/>
+      <c r="I4" s="113">
         <v>61</v>
       </c>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107">
+      <c r="J4" s="113"/>
+      <c r="K4" s="113">
         <v>51</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="55" t="s">
@@ -8423,11 +8424,11 @@
       <c r="L5" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
@@ -8721,6 +8722,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="P3:P5"/>
@@ -8736,8 +8739,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9345,15 +9346,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="113" t="s">
         <v>653</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="87" t="s">
@@ -9453,45 +9454,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="132" t="s">
         <v>669</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124" t="s">
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132" t="s">
         <v>673</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="132" t="s">
         <v>646</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="127" t="s">
+      <c r="E2" s="132"/>
+      <c r="F2" s="135" t="s">
         <v>647</v>
       </c>
-      <c r="G2" s="128" t="s">
+      <c r="G2" s="136" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
       <c r="D3" s="93" t="s">
         <v>675</v>
       </c>
       <c r="E3" s="93" t="s">
         <v>674</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="128"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
@@ -9926,20 +9927,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="113" t="s">
         <v>685</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="113" t="s">
         <v>686</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="96" t="s">
@@ -9948,7 +9949,7 @@
       <c r="C3" s="96" t="s">
         <v>688</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="113" t="s">
         <v>702</v>
       </c>
     </row>
@@ -9959,7 +9960,7 @@
       <c r="C4" s="97" t="s">
         <v>689</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="113"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -11217,22 +11218,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="137" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="130" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="138" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="130"/>
+      <c r="C3" s="138"/>
       <c r="D3" s="34" t="s">
         <v>418</v>
       </c>
@@ -11244,7 +11245,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="34" t="s">
         <v>415</v>
       </c>
@@ -11337,6 +11338,18 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A3:A4"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FC1F6-C32E-4CA7-BD16-E6D560BB78BD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11574,10 +11587,10 @@
       <c r="C2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="107"/>
+      <c r="E2" s="113"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -11681,14 +11694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10186311-843E-4C55-9479-F410A926D5E2}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="5"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
@@ -12430,10 +12443,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="72">
         <v>1940</v>
       </c>
       <c r="C30" t="s">
@@ -13000,11 +13013,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -13069,79 +13082,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="117" t="s">
         <v>507</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="117" t="s">
         <v>365</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="117" t="s">
         <v>366</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="117" t="s">
         <v>367</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="117" t="s">
         <v>368</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="K2" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="107" t="s">
+      <c r="L2" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
       <c r="L3" s="15" t="s">
         <v>155</v>
       </c>
@@ -13484,12 +13497,12 @@
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="116" t="s">
         <v>504</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="16"/>
       <c r="G11" s="16"/>
       <c r="I11" s="16"/>
@@ -13872,12 +13885,12 @@
       <c r="AF21" s="16"/>
     </row>
     <row r="22" spans="1:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="116" t="s">
         <v>510</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="16"/>
       <c r="G22" s="16"/>
       <c r="I22" s="16"/>
